--- a/B3_102_limdata.xlsx
+++ b/B3_102_limdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yujia1998/Desktop/Work/Reading Center/B3VF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC4EAC5-16E1-284D-8BED-753A334BD2F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A7C60D-0053-9841-8385-DAED1CF3AE1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28800" windowHeight="16640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -933,6 +933,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1410,10 +1413,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1771,13 +1775,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C414C91-2AD7-EA4E-96F3-D5F16D2BDCF8}">
   <dimension ref="A1:I252"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1791,7 +1795,7 @@
       <c r="C1" t="s">
         <v>300</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>298</v>
       </c>
       <c r="E1" t="s">
@@ -1820,7 +1824,7 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="3">
         <v>44999</v>
       </c>
       <c r="E2" t="s">
@@ -1849,7 +1853,7 @@
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="3">
         <v>44999</v>
       </c>
       <c r="E3" t="s">
@@ -1878,7 +1882,7 @@
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <v>44999</v>
       </c>
       <c r="E4" t="s">
@@ -1907,7 +1911,7 @@
       <c r="C5">
         <v>2</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="3">
         <v>45090</v>
       </c>
       <c r="E5" t="s">
@@ -1936,7 +1940,7 @@
       <c r="C6">
         <v>2</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="3">
         <v>45090</v>
       </c>
       <c r="E6" t="s">
@@ -1965,7 +1969,7 @@
       <c r="C7">
         <v>2</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="3">
         <v>45090</v>
       </c>
       <c r="E7" t="s">
@@ -1994,7 +1998,7 @@
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="3">
         <v>45012</v>
       </c>
       <c r="E8" t="s">
@@ -2023,7 +2027,7 @@
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="3">
         <v>45012</v>
       </c>
       <c r="E9" t="s">
@@ -2052,7 +2056,7 @@
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="3">
         <v>45012</v>
       </c>
       <c r="E10" t="s">
@@ -2081,7 +2085,7 @@
       <c r="C11">
         <v>2</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="3">
         <v>45084</v>
       </c>
       <c r="E11" t="s">
@@ -2110,7 +2114,7 @@
       <c r="C12">
         <v>2</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="3">
         <v>45084</v>
       </c>
       <c r="E12" t="s">
@@ -2139,7 +2143,7 @@
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="3">
         <v>45015</v>
       </c>
       <c r="E13" t="s">
@@ -2168,7 +2172,7 @@
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="3">
         <v>45015</v>
       </c>
       <c r="E14" t="s">
@@ -2197,7 +2201,7 @@
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="3">
         <v>45015</v>
       </c>
       <c r="E15" t="s">
@@ -2226,7 +2230,7 @@
       <c r="C16">
         <v>2</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="3">
         <v>45086</v>
       </c>
       <c r="E16" t="s">
@@ -2255,7 +2259,7 @@
       <c r="C17">
         <v>2</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="3">
         <v>45086</v>
       </c>
       <c r="E17" t="s">
@@ -2284,7 +2288,7 @@
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="3">
         <v>45020</v>
       </c>
       <c r="E18" t="s">
@@ -2313,7 +2317,7 @@
       <c r="C19">
         <v>1</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="3">
         <v>45020</v>
       </c>
       <c r="E19" t="s">
@@ -2342,7 +2346,7 @@
       <c r="C20">
         <v>1</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="3">
         <v>45020</v>
       </c>
       <c r="E20" t="s">
@@ -2371,7 +2375,7 @@
       <c r="C21">
         <v>2</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="3">
         <v>45097</v>
       </c>
       <c r="E21" t="s">
@@ -2400,7 +2404,7 @@
       <c r="C22">
         <v>2</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="3">
         <v>45097</v>
       </c>
       <c r="E22" t="s">
@@ -2429,7 +2433,7 @@
       <c r="C23">
         <v>2</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="3">
         <v>45097</v>
       </c>
       <c r="E23" t="s">
@@ -2458,7 +2462,7 @@
       <c r="C24">
         <v>1</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="3">
         <v>45027</v>
       </c>
       <c r="E24" t="s">
@@ -2487,7 +2491,7 @@
       <c r="C25">
         <v>1</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="3">
         <v>45048</v>
       </c>
       <c r="E25" t="s">
@@ -2516,7 +2520,7 @@
       <c r="C26">
         <v>1</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="3">
         <v>45048</v>
       </c>
       <c r="E26" t="s">
@@ -2545,7 +2549,7 @@
       <c r="C27">
         <v>2</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="3">
         <v>45118</v>
       </c>
       <c r="E27" t="s">
@@ -2574,7 +2578,7 @@
       <c r="C28">
         <v>2</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="3">
         <v>45118</v>
       </c>
       <c r="E28" t="s">
@@ -2603,7 +2607,7 @@
       <c r="C29">
         <v>2</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="3">
         <v>45118</v>
       </c>
       <c r="E29" t="s">
@@ -2629,7 +2633,10 @@
       <c r="B30" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="1">
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" s="3">
         <v>45027</v>
       </c>
       <c r="E30" t="s">
@@ -2655,7 +2662,10 @@
       <c r="B31" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="1">
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" s="3">
         <v>45033</v>
       </c>
       <c r="E31" t="s">
@@ -2681,7 +2691,10 @@
       <c r="B32" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="1">
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" s="3">
         <v>45033</v>
       </c>
       <c r="E32" t="s">
@@ -2707,7 +2720,10 @@
       <c r="B33" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="1">
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33" s="3">
         <v>45107</v>
       </c>
       <c r="E33" t="s">
@@ -2733,7 +2749,10 @@
       <c r="B34" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="1">
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34" s="3">
         <v>45107</v>
       </c>
       <c r="E34" t="s">
@@ -2759,7 +2778,10 @@
       <c r="B35" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="1">
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35" s="3">
         <v>45107</v>
       </c>
       <c r="E35" t="s">
@@ -2785,7 +2807,10 @@
       <c r="B36" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="1">
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" s="3">
         <v>45029</v>
       </c>
       <c r="E36" t="s">
@@ -2811,7 +2836,10 @@
       <c r="B37" t="s">
         <v>6</v>
       </c>
-      <c r="D37" s="1">
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" s="3">
         <v>45029</v>
       </c>
       <c r="E37" t="s">
@@ -2837,7 +2865,10 @@
       <c r="B38" t="s">
         <v>6</v>
       </c>
-      <c r="D38" s="1">
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" s="3">
         <v>45029</v>
       </c>
       <c r="E38" t="s">
@@ -2863,7 +2894,10 @@
       <c r="B39" t="s">
         <v>6</v>
       </c>
-      <c r="D39" s="1">
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39" s="3">
         <v>45091</v>
       </c>
       <c r="E39" t="s">
@@ -2889,7 +2923,10 @@
       <c r="B40" t="s">
         <v>6</v>
       </c>
-      <c r="D40" s="1">
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40" s="3">
         <v>45091</v>
       </c>
       <c r="E40" t="s">
@@ -2915,7 +2952,10 @@
       <c r="B41" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="1">
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41" s="3">
         <v>45091</v>
       </c>
       <c r="E41" t="s">
@@ -2941,7 +2981,7 @@
       <c r="B42" t="s">
         <v>11</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="3">
         <v>45033</v>
       </c>
       <c r="E42" t="s">
@@ -2967,7 +3007,7 @@
       <c r="B43" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43" s="3">
         <v>45033</v>
       </c>
       <c r="E43" t="s">
@@ -2993,7 +3033,7 @@
       <c r="B44" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44" s="3">
         <v>45033</v>
       </c>
       <c r="E44" t="s">
@@ -3019,7 +3059,7 @@
       <c r="B45" t="s">
         <v>11</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45" s="3">
         <v>45103</v>
       </c>
       <c r="E45" t="s">
@@ -3045,7 +3085,7 @@
       <c r="B46" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46" s="3">
         <v>45103</v>
       </c>
       <c r="E46" t="s">
@@ -3071,7 +3111,7 @@
       <c r="B47" t="s">
         <v>11</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47" s="3">
         <v>45103</v>
       </c>
       <c r="E47" t="s">
@@ -3097,7 +3137,7 @@
       <c r="B48" t="s">
         <v>11</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48" s="3">
         <v>45035</v>
       </c>
       <c r="E48" t="s">
@@ -3123,7 +3163,7 @@
       <c r="B49" t="s">
         <v>11</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49" s="3">
         <v>45035</v>
       </c>
       <c r="E49" t="s">
@@ -3149,7 +3189,7 @@
       <c r="B50" t="s">
         <v>11</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50" s="3">
         <v>45035</v>
       </c>
       <c r="E50" t="s">
@@ -3175,7 +3215,7 @@
       <c r="B51" t="s">
         <v>11</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51" s="3">
         <v>45119</v>
       </c>
       <c r="E51" t="s">
@@ -3201,7 +3241,7 @@
       <c r="B52" t="s">
         <v>11</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52" s="3">
         <v>45119</v>
       </c>
       <c r="E52" t="s">
@@ -3227,7 +3267,7 @@
       <c r="B53" t="s">
         <v>11</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53" s="3">
         <v>45119</v>
       </c>
       <c r="E53" t="s">
@@ -3253,7 +3293,7 @@
       <c r="B54" t="s">
         <v>6</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54" s="3">
         <v>45036</v>
       </c>
       <c r="E54" s="2">
@@ -3279,7 +3319,7 @@
       <c r="B55" t="s">
         <v>6</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55" s="3">
         <v>45036</v>
       </c>
       <c r="E55" s="2">
@@ -3305,7 +3345,7 @@
       <c r="B56" t="s">
         <v>6</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56" s="3">
         <v>45036</v>
       </c>
       <c r="E56" s="2">
@@ -3331,7 +3371,7 @@
       <c r="B57" t="s">
         <v>11</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D57" s="3">
         <v>45037</v>
       </c>
       <c r="E57" t="s">
@@ -3357,7 +3397,7 @@
       <c r="B58" t="s">
         <v>11</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D58" s="3">
         <v>45037</v>
       </c>
       <c r="E58" t="s">
@@ -3383,7 +3423,7 @@
       <c r="B59" t="s">
         <v>11</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D59" s="3">
         <v>45037</v>
       </c>
       <c r="E59" t="s">
@@ -3409,7 +3449,7 @@
       <c r="B60" t="s">
         <v>11</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D60" s="3">
         <v>45121</v>
       </c>
       <c r="E60" s="2">
@@ -3435,7 +3475,7 @@
       <c r="B61" t="s">
         <v>11</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D61" s="3">
         <v>45121</v>
       </c>
       <c r="E61" t="s">
@@ -3461,7 +3501,7 @@
       <c r="B62" t="s">
         <v>11</v>
       </c>
-      <c r="D62" s="1">
+      <c r="D62" s="3">
         <v>45121</v>
       </c>
       <c r="E62" t="s">
@@ -3487,7 +3527,7 @@
       <c r="B63" t="s">
         <v>11</v>
       </c>
-      <c r="D63" s="1">
+      <c r="D63" s="3">
         <v>45040</v>
       </c>
       <c r="E63" t="s">
@@ -3513,7 +3553,7 @@
       <c r="B64" t="s">
         <v>11</v>
       </c>
-      <c r="D64" s="1">
+      <c r="D64" s="3">
         <v>45040</v>
       </c>
       <c r="E64" t="s">
@@ -3539,7 +3579,7 @@
       <c r="B65" t="s">
         <v>11</v>
       </c>
-      <c r="D65" s="1">
+      <c r="D65" s="3">
         <v>45126</v>
       </c>
       <c r="E65" t="s">
@@ -3565,7 +3605,7 @@
       <c r="B66" t="s">
         <v>11</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D66" s="3">
         <v>45126</v>
       </c>
       <c r="E66" t="s">
@@ -3591,7 +3631,7 @@
       <c r="B67" t="s">
         <v>11</v>
       </c>
-      <c r="D67" s="1">
+      <c r="D67" s="3">
         <v>45126</v>
       </c>
       <c r="E67" t="s">
@@ -3617,7 +3657,7 @@
       <c r="B68" t="s">
         <v>6</v>
       </c>
-      <c r="D68" s="1">
+      <c r="D68" s="3">
         <v>45040</v>
       </c>
       <c r="E68" t="s">
@@ -3643,7 +3683,7 @@
       <c r="B69" t="s">
         <v>6</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D69" s="3">
         <v>45040</v>
       </c>
       <c r="E69" t="s">
@@ -3669,7 +3709,7 @@
       <c r="B70" t="s">
         <v>6</v>
       </c>
-      <c r="D70" s="1">
+      <c r="D70" s="3">
         <v>45040</v>
       </c>
       <c r="E70" t="s">
@@ -3695,7 +3735,7 @@
       <c r="B71" t="s">
         <v>6</v>
       </c>
-      <c r="D71" s="1">
+      <c r="D71" s="3">
         <v>45124</v>
       </c>
       <c r="E71" t="s">
@@ -3721,7 +3761,7 @@
       <c r="B72" t="s">
         <v>6</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D72" s="3">
         <v>45124</v>
       </c>
       <c r="E72" t="s">
@@ -3747,7 +3787,7 @@
       <c r="B73" t="s">
         <v>6</v>
       </c>
-      <c r="D73" s="1">
+      <c r="D73" s="3">
         <v>45124</v>
       </c>
       <c r="E73" t="s">
@@ -3773,7 +3813,7 @@
       <c r="B74" t="s">
         <v>11</v>
       </c>
-      <c r="D74" s="1">
+      <c r="D74" s="3">
         <v>45048</v>
       </c>
       <c r="E74" t="s">
@@ -3799,7 +3839,7 @@
       <c r="B75" t="s">
         <v>11</v>
       </c>
-      <c r="D75" s="1">
+      <c r="D75" s="3">
         <v>45048</v>
       </c>
       <c r="E75" t="s">
@@ -3825,7 +3865,7 @@
       <c r="B76" t="s">
         <v>11</v>
       </c>
-      <c r="D76" s="1">
+      <c r="D76" s="3">
         <v>45048</v>
       </c>
       <c r="E76" t="s">
@@ -3851,7 +3891,7 @@
       <c r="B77" t="s">
         <v>11</v>
       </c>
-      <c r="D77" s="1">
+      <c r="D77" s="3">
         <v>45132</v>
       </c>
       <c r="E77" t="s">
@@ -3877,7 +3917,7 @@
       <c r="B78" t="s">
         <v>11</v>
       </c>
-      <c r="D78" s="1">
+      <c r="D78" s="3">
         <v>45132</v>
       </c>
       <c r="E78" t="s">
@@ -3903,7 +3943,7 @@
       <c r="B79" t="s">
         <v>11</v>
       </c>
-      <c r="D79" s="1">
+      <c r="D79" s="3">
         <v>45132</v>
       </c>
       <c r="E79" t="s">
@@ -3929,7 +3969,7 @@
       <c r="B80" t="s">
         <v>11</v>
       </c>
-      <c r="D80" s="1">
+      <c r="D80" s="3">
         <v>45070</v>
       </c>
       <c r="E80" t="s">
@@ -3955,7 +3995,7 @@
       <c r="B81" t="s">
         <v>11</v>
       </c>
-      <c r="D81" s="1">
+      <c r="D81" s="3">
         <v>45070</v>
       </c>
       <c r="E81" t="s">
@@ -3981,7 +4021,7 @@
       <c r="B82" t="s">
         <v>11</v>
       </c>
-      <c r="D82" s="1">
+      <c r="D82" s="3">
         <v>45070</v>
       </c>
       <c r="E82" t="s">
@@ -4007,7 +4047,7 @@
       <c r="B83" t="s">
         <v>11</v>
       </c>
-      <c r="D83" s="1">
+      <c r="D83" s="3">
         <v>45126</v>
       </c>
       <c r="E83" t="s">
@@ -4033,7 +4073,7 @@
       <c r="B84" t="s">
         <v>11</v>
       </c>
-      <c r="D84" s="1">
+      <c r="D84" s="3">
         <v>45126</v>
       </c>
       <c r="E84" t="s">
@@ -4059,7 +4099,7 @@
       <c r="B85" t="s">
         <v>11</v>
       </c>
-      <c r="D85" s="1">
+      <c r="D85" s="3">
         <v>45042</v>
       </c>
       <c r="E85" s="2">
@@ -4085,7 +4125,7 @@
       <c r="B86" t="s">
         <v>11</v>
       </c>
-      <c r="D86" s="1">
+      <c r="D86" s="3">
         <v>45042</v>
       </c>
       <c r="E86" s="2">
@@ -4111,7 +4151,7 @@
       <c r="B87" t="s">
         <v>11</v>
       </c>
-      <c r="D87" s="1">
+      <c r="D87" s="3">
         <v>45042</v>
       </c>
       <c r="E87" s="2">
@@ -4137,7 +4177,7 @@
       <c r="B88" t="s">
         <v>11</v>
       </c>
-      <c r="D88" s="1">
+      <c r="D88" s="3">
         <v>45103</v>
       </c>
       <c r="E88" s="2">
@@ -4163,7 +4203,7 @@
       <c r="B89" t="s">
         <v>11</v>
       </c>
-      <c r="D89" s="1">
+      <c r="D89" s="3">
         <v>45103</v>
       </c>
       <c r="E89" s="2">
@@ -4189,7 +4229,7 @@
       <c r="B90" t="s">
         <v>11</v>
       </c>
-      <c r="D90" s="1">
+      <c r="D90" s="3">
         <v>45103</v>
       </c>
       <c r="E90" s="2">
@@ -4215,7 +4255,7 @@
       <c r="B91" t="s">
         <v>6</v>
       </c>
-      <c r="D91" s="1">
+      <c r="D91" s="3">
         <v>45042</v>
       </c>
       <c r="E91" t="s">
@@ -4241,7 +4281,7 @@
       <c r="B92" t="s">
         <v>6</v>
       </c>
-      <c r="D92" s="1">
+      <c r="D92" s="3">
         <v>45042</v>
       </c>
       <c r="E92" t="s">
@@ -4267,7 +4307,7 @@
       <c r="B93" t="s">
         <v>6</v>
       </c>
-      <c r="D93" s="1">
+      <c r="D93" s="3">
         <v>45042</v>
       </c>
       <c r="E93" t="s">
@@ -4293,7 +4333,7 @@
       <c r="B94" t="s">
         <v>11</v>
       </c>
-      <c r="D94" s="1">
+      <c r="D94" s="3">
         <v>45044</v>
       </c>
       <c r="E94" t="s">
@@ -4319,7 +4359,7 @@
       <c r="B95" t="s">
         <v>11</v>
       </c>
-      <c r="D95" s="1">
+      <c r="D95" s="3">
         <v>45044</v>
       </c>
       <c r="E95" t="s">
@@ -4345,7 +4385,7 @@
       <c r="B96" t="s">
         <v>11</v>
       </c>
-      <c r="D96" s="1">
+      <c r="D96" s="3">
         <v>45044</v>
       </c>
       <c r="E96" t="s">
@@ -4371,7 +4411,7 @@
       <c r="B97" t="s">
         <v>6</v>
       </c>
-      <c r="D97" s="1">
+      <c r="D97" s="3">
         <v>45047</v>
       </c>
       <c r="E97" t="s">
@@ -4397,7 +4437,7 @@
       <c r="B98" t="s">
         <v>6</v>
       </c>
-      <c r="D98" s="1">
+      <c r="D98" s="3">
         <v>45047</v>
       </c>
       <c r="E98" t="s">
@@ -4423,7 +4463,7 @@
       <c r="B99" t="s">
         <v>6</v>
       </c>
-      <c r="D99" s="1">
+      <c r="D99" s="3">
         <v>45047</v>
       </c>
       <c r="E99" t="s">
@@ -4449,7 +4489,7 @@
       <c r="B100" t="s">
         <v>6</v>
       </c>
-      <c r="D100" s="1">
+      <c r="D100" s="3">
         <v>45124</v>
       </c>
       <c r="E100" t="s">
@@ -4475,7 +4515,7 @@
       <c r="B101" t="s">
         <v>6</v>
       </c>
-      <c r="D101" s="1">
+      <c r="D101" s="3">
         <v>45124</v>
       </c>
       <c r="E101" t="s">
@@ -4501,7 +4541,7 @@
       <c r="B102" t="s">
         <v>6</v>
       </c>
-      <c r="D102" s="1">
+      <c r="D102" s="3">
         <v>45124</v>
       </c>
       <c r="E102" t="s">
@@ -4527,7 +4567,7 @@
       <c r="B103" t="s">
         <v>11</v>
       </c>
-      <c r="D103" s="1">
+      <c r="D103" s="3">
         <v>45047</v>
       </c>
       <c r="E103" t="s">
@@ -4553,7 +4593,7 @@
       <c r="B104" t="s">
         <v>11</v>
       </c>
-      <c r="D104" s="1">
+      <c r="D104" s="3">
         <v>45047</v>
       </c>
       <c r="E104" t="s">
@@ -4579,7 +4619,7 @@
       <c r="B105" t="s">
         <v>11</v>
       </c>
-      <c r="D105" s="1">
+      <c r="D105" s="3">
         <v>45047</v>
       </c>
       <c r="E105" t="s">
@@ -4605,7 +4645,7 @@
       <c r="B106" t="s">
         <v>11</v>
       </c>
-      <c r="D106" s="1">
+      <c r="D106" s="3">
         <v>45117</v>
       </c>
       <c r="E106" t="s">
@@ -4631,7 +4671,7 @@
       <c r="B107" t="s">
         <v>11</v>
       </c>
-      <c r="D107" s="1">
+      <c r="D107" s="3">
         <v>45117</v>
       </c>
       <c r="E107" t="s">
@@ -4657,7 +4697,7 @@
       <c r="B108" t="s">
         <v>11</v>
       </c>
-      <c r="D108" s="1">
+      <c r="D108" s="3">
         <v>45117</v>
       </c>
       <c r="E108" t="s">
@@ -4683,7 +4723,7 @@
       <c r="B109" t="s">
         <v>6</v>
       </c>
-      <c r="D109" s="1">
+      <c r="D109" s="3">
         <v>45049</v>
       </c>
       <c r="E109" t="s">
@@ -4709,7 +4749,7 @@
       <c r="B110" t="s">
         <v>6</v>
       </c>
-      <c r="D110" s="1">
+      <c r="D110" s="3">
         <v>45049</v>
       </c>
       <c r="E110" t="s">
@@ -4735,7 +4775,7 @@
       <c r="B111" t="s">
         <v>6</v>
       </c>
-      <c r="D111" s="1">
+      <c r="D111" s="3">
         <v>45049</v>
       </c>
       <c r="E111" t="s">
@@ -4761,7 +4801,7 @@
       <c r="B112" t="s">
         <v>6</v>
       </c>
-      <c r="D112" s="1">
+      <c r="D112" s="3">
         <v>45120</v>
       </c>
       <c r="E112" t="s">
@@ -4787,7 +4827,7 @@
       <c r="B113" t="s">
         <v>6</v>
       </c>
-      <c r="D113" s="1">
+      <c r="D113" s="3">
         <v>45120</v>
       </c>
       <c r="E113" t="s">
@@ -4813,7 +4853,7 @@
       <c r="B114" t="s">
         <v>6</v>
       </c>
-      <c r="D114" s="1">
+      <c r="D114" s="3">
         <v>45120</v>
       </c>
       <c r="E114" t="s">
@@ -4839,7 +4879,7 @@
       <c r="B115" t="s">
         <v>6</v>
       </c>
-      <c r="D115" s="1">
+      <c r="D115" s="3">
         <v>45037</v>
       </c>
       <c r="E115" t="s">
@@ -4865,7 +4905,7 @@
       <c r="B116" t="s">
         <v>6</v>
       </c>
-      <c r="D116" s="1">
+      <c r="D116" s="3">
         <v>45051</v>
       </c>
       <c r="E116" t="s">
@@ -4891,7 +4931,7 @@
       <c r="B117" t="s">
         <v>6</v>
       </c>
-      <c r="D117" s="1">
+      <c r="D117" s="3">
         <v>45051</v>
       </c>
       <c r="E117" t="s">
@@ -4917,7 +4957,7 @@
       <c r="B118" t="s">
         <v>6</v>
       </c>
-      <c r="D118" s="1">
+      <c r="D118" s="3">
         <v>45100</v>
       </c>
       <c r="E118" s="2">
@@ -4943,7 +4983,7 @@
       <c r="B119" t="s">
         <v>6</v>
       </c>
-      <c r="D119" s="1">
+      <c r="D119" s="3">
         <v>45100</v>
       </c>
       <c r="E119" s="2">
@@ -4969,7 +5009,7 @@
       <c r="B120" t="s">
         <v>6</v>
       </c>
-      <c r="D120" s="1">
+      <c r="D120" s="3">
         <v>45100</v>
       </c>
       <c r="E120" t="s">
@@ -4995,7 +5035,7 @@
       <c r="B121" t="s">
         <v>6</v>
       </c>
-      <c r="D121" s="1">
+      <c r="D121" s="3">
         <v>45139</v>
       </c>
       <c r="E121" t="s">
@@ -5021,7 +5061,7 @@
       <c r="B122" t="s">
         <v>6</v>
       </c>
-      <c r="D122" s="1">
+      <c r="D122" s="3">
         <v>45139</v>
       </c>
       <c r="E122" t="s">
@@ -5047,7 +5087,7 @@
       <c r="B123" t="s">
         <v>6</v>
       </c>
-      <c r="D123" s="1">
+      <c r="D123" s="3">
         <v>45145</v>
       </c>
       <c r="E123" t="s">
@@ -5073,7 +5113,7 @@
       <c r="B124" t="s">
         <v>11</v>
       </c>
-      <c r="D124" s="1">
+      <c r="D124" s="3">
         <v>45054</v>
       </c>
       <c r="E124" t="s">
@@ -5099,7 +5139,7 @@
       <c r="B125" t="s">
         <v>11</v>
       </c>
-      <c r="D125" s="1">
+      <c r="D125" s="3">
         <v>45054</v>
       </c>
       <c r="E125" t="s">
@@ -5125,7 +5165,7 @@
       <c r="B126" t="s">
         <v>11</v>
       </c>
-      <c r="D126" s="1">
+      <c r="D126" s="3">
         <v>45054</v>
       </c>
       <c r="E126" t="s">
@@ -5151,7 +5191,7 @@
       <c r="B127" t="s">
         <v>11</v>
       </c>
-      <c r="D127" s="1">
+      <c r="D127" s="3">
         <v>45124</v>
       </c>
       <c r="E127" t="s">
@@ -5177,7 +5217,7 @@
       <c r="B128" t="s">
         <v>11</v>
       </c>
-      <c r="D128" s="1">
+      <c r="D128" s="3">
         <v>45124</v>
       </c>
       <c r="E128" t="s">
@@ -5203,7 +5243,7 @@
       <c r="B129" t="s">
         <v>11</v>
       </c>
-      <c r="D129" s="1">
+      <c r="D129" s="3">
         <v>45124</v>
       </c>
       <c r="E129" t="s">
@@ -5229,7 +5269,7 @@
       <c r="B130" t="s">
         <v>11</v>
       </c>
-      <c r="D130" s="1">
+      <c r="D130" s="3">
         <v>45058</v>
       </c>
       <c r="E130" t="s">
@@ -5255,7 +5295,7 @@
       <c r="B131" t="s">
         <v>11</v>
       </c>
-      <c r="D131" s="1">
+      <c r="D131" s="3">
         <v>45058</v>
       </c>
       <c r="E131" t="s">
@@ -5281,7 +5321,7 @@
       <c r="B132" t="s">
         <v>11</v>
       </c>
-      <c r="D132" s="1">
+      <c r="D132" s="3">
         <v>45058</v>
       </c>
       <c r="E132" t="s">
@@ -5307,7 +5347,7 @@
       <c r="B133" t="s">
         <v>11</v>
       </c>
-      <c r="D133" s="1">
+      <c r="D133" s="3">
         <v>45138</v>
       </c>
       <c r="E133" t="s">
@@ -5333,7 +5373,7 @@
       <c r="B134" t="s">
         <v>11</v>
       </c>
-      <c r="D134" s="1">
+      <c r="D134" s="3">
         <v>45138</v>
       </c>
       <c r="E134" t="s">
@@ -5359,7 +5399,7 @@
       <c r="B135" t="s">
         <v>11</v>
       </c>
-      <c r="D135" s="1">
+      <c r="D135" s="3">
         <v>45138</v>
       </c>
       <c r="E135" t="s">
@@ -5385,7 +5425,7 @@
       <c r="B136" t="s">
         <v>11</v>
       </c>
-      <c r="D136" s="1">
+      <c r="D136" s="3">
         <v>45058</v>
       </c>
       <c r="E136" t="s">
@@ -5411,7 +5451,7 @@
       <c r="B137" t="s">
         <v>11</v>
       </c>
-      <c r="D137" s="1">
+      <c r="D137" s="3">
         <v>45058</v>
       </c>
       <c r="E137" t="s">
@@ -5437,7 +5477,7 @@
       <c r="B138" t="s">
         <v>11</v>
       </c>
-      <c r="D138" s="1">
+      <c r="D138" s="3">
         <v>45145</v>
       </c>
       <c r="E138" t="s">
@@ -5463,7 +5503,7 @@
       <c r="B139" t="s">
         <v>11</v>
       </c>
-      <c r="D139" s="1">
+      <c r="D139" s="3">
         <v>45145</v>
       </c>
       <c r="E139" t="s">
@@ -5489,7 +5529,7 @@
       <c r="B140" t="s">
         <v>11</v>
       </c>
-      <c r="D140" s="1">
+      <c r="D140" s="3">
         <v>45145</v>
       </c>
       <c r="E140" t="s">
@@ -5515,7 +5555,7 @@
       <c r="B141" t="s">
         <v>11</v>
       </c>
-      <c r="D141" s="1">
+      <c r="D141" s="3">
         <v>45061</v>
       </c>
       <c r="E141" t="s">
@@ -5541,7 +5581,7 @@
       <c r="B142" t="s">
         <v>11</v>
       </c>
-      <c r="D142" s="1">
+      <c r="D142" s="3">
         <v>45061</v>
       </c>
       <c r="E142" t="s">
@@ -5567,7 +5607,7 @@
       <c r="B143" t="s">
         <v>11</v>
       </c>
-      <c r="D143" s="1">
+      <c r="D143" s="3">
         <v>45061</v>
       </c>
       <c r="E143" t="s">
@@ -5593,7 +5633,7 @@
       <c r="B144" t="s">
         <v>11</v>
       </c>
-      <c r="D144" s="1">
+      <c r="D144" s="3">
         <v>45138</v>
       </c>
       <c r="E144" t="s">
@@ -5619,7 +5659,7 @@
       <c r="B145" t="s">
         <v>11</v>
       </c>
-      <c r="D145" s="1">
+      <c r="D145" s="3">
         <v>45138</v>
       </c>
       <c r="E145" t="s">
@@ -5645,7 +5685,7 @@
       <c r="B146" t="s">
         <v>11</v>
       </c>
-      <c r="D146" s="1">
+      <c r="D146" s="3">
         <v>45138</v>
       </c>
       <c r="E146" t="s">
@@ -5671,7 +5711,7 @@
       <c r="B147" t="s">
         <v>6</v>
       </c>
-      <c r="D147" s="1">
+      <c r="D147" s="3">
         <v>45061</v>
       </c>
       <c r="E147" t="s">
@@ -5697,7 +5737,7 @@
       <c r="B148" t="s">
         <v>6</v>
       </c>
-      <c r="D148" s="1">
+      <c r="D148" s="3">
         <v>45068</v>
       </c>
       <c r="E148" t="s">
@@ -5723,7 +5763,7 @@
       <c r="B149" t="s">
         <v>6</v>
       </c>
-      <c r="D149" s="1">
+      <c r="D149" s="3">
         <v>45068</v>
       </c>
       <c r="E149" t="s">
@@ -5749,7 +5789,7 @@
       <c r="B150" t="s">
         <v>6</v>
       </c>
-      <c r="D150" s="1">
+      <c r="D150" s="3">
         <v>45152</v>
       </c>
       <c r="E150" t="s">
@@ -5775,7 +5815,7 @@
       <c r="B151" t="s">
         <v>6</v>
       </c>
-      <c r="D151" s="1">
+      <c r="D151" s="3">
         <v>45152</v>
       </c>
       <c r="E151" t="s">
@@ -5801,7 +5841,7 @@
       <c r="B152" t="s">
         <v>6</v>
       </c>
-      <c r="D152" s="1">
+      <c r="D152" s="3">
         <v>45152</v>
       </c>
       <c r="E152" t="s">
@@ -5827,7 +5867,7 @@
       <c r="B153" t="s">
         <v>11</v>
       </c>
-      <c r="D153" s="1">
+      <c r="D153" s="3">
         <v>45062</v>
       </c>
       <c r="E153" t="s">
@@ -5853,7 +5893,7 @@
       <c r="B154" t="s">
         <v>11</v>
       </c>
-      <c r="D154" s="1">
+      <c r="D154" s="3">
         <v>45062</v>
       </c>
       <c r="E154" t="s">
@@ -5879,7 +5919,7 @@
       <c r="B155" t="s">
         <v>11</v>
       </c>
-      <c r="D155" s="1">
+      <c r="D155" s="3">
         <v>45062</v>
       </c>
       <c r="E155" t="s">
@@ -5905,7 +5945,7 @@
       <c r="B156" t="s">
         <v>6</v>
       </c>
-      <c r="D156" s="1">
+      <c r="D156" s="3">
         <v>45063</v>
       </c>
       <c r="E156" t="s">
@@ -5931,7 +5971,7 @@
       <c r="B157" t="s">
         <v>6</v>
       </c>
-      <c r="D157" s="1">
+      <c r="D157" s="3">
         <v>45063</v>
       </c>
       <c r="E157" t="s">
@@ -5957,7 +5997,7 @@
       <c r="B158" t="s">
         <v>6</v>
       </c>
-      <c r="D158" s="1">
+      <c r="D158" s="3">
         <v>45063</v>
       </c>
       <c r="E158" t="s">
@@ -5983,7 +6023,7 @@
       <c r="B159" t="s">
         <v>11</v>
       </c>
-      <c r="D159" s="1">
+      <c r="D159" s="3">
         <v>45063</v>
       </c>
       <c r="E159" t="s">
@@ -6009,7 +6049,7 @@
       <c r="B160" t="s">
         <v>11</v>
       </c>
-      <c r="D160" s="1">
+      <c r="D160" s="3">
         <v>45063</v>
       </c>
       <c r="E160" t="s">
@@ -6035,7 +6075,7 @@
       <c r="B161" t="s">
         <v>11</v>
       </c>
-      <c r="D161" s="1">
+      <c r="D161" s="3">
         <v>45063</v>
       </c>
       <c r="E161" t="s">
@@ -6061,7 +6101,7 @@
       <c r="B162" t="s">
         <v>11</v>
       </c>
-      <c r="D162" s="1">
+      <c r="D162" s="3">
         <v>45138</v>
       </c>
       <c r="E162" t="s">
@@ -6087,7 +6127,7 @@
       <c r="B163" t="s">
         <v>11</v>
       </c>
-      <c r="D163" s="1">
+      <c r="D163" s="3">
         <v>45138</v>
       </c>
       <c r="E163" t="s">
@@ -6113,7 +6153,7 @@
       <c r="B164" t="s">
         <v>11</v>
       </c>
-      <c r="D164" s="1">
+      <c r="D164" s="3">
         <v>45138</v>
       </c>
       <c r="E164" t="s">
@@ -6139,7 +6179,7 @@
       <c r="B165" t="s">
         <v>11</v>
       </c>
-      <c r="D165" s="1">
+      <c r="D165" s="3">
         <v>45064</v>
       </c>
       <c r="E165" t="s">
@@ -6165,7 +6205,7 @@
       <c r="B166" t="s">
         <v>11</v>
       </c>
-      <c r="D166" s="1">
+      <c r="D166" s="3">
         <v>45064</v>
       </c>
       <c r="E166" t="s">
@@ -6191,7 +6231,7 @@
       <c r="B167" t="s">
         <v>11</v>
       </c>
-      <c r="D167" s="1">
+      <c r="D167" s="3">
         <v>45064</v>
       </c>
       <c r="E167" t="s">
@@ -6217,7 +6257,7 @@
       <c r="B168" t="s">
         <v>11</v>
       </c>
-      <c r="D168" s="1">
+      <c r="D168" s="3">
         <v>45142</v>
       </c>
       <c r="E168" t="s">
@@ -6243,7 +6283,7 @@
       <c r="B169" t="s">
         <v>11</v>
       </c>
-      <c r="D169" s="1">
+      <c r="D169" s="3">
         <v>45142</v>
       </c>
       <c r="E169" t="s">
@@ -6269,7 +6309,7 @@
       <c r="B170" t="s">
         <v>11</v>
       </c>
-      <c r="D170" s="1">
+      <c r="D170" s="3">
         <v>45142</v>
       </c>
       <c r="E170" t="s">
@@ -6295,7 +6335,7 @@
       <c r="B171" t="s">
         <v>6</v>
       </c>
-      <c r="D171" s="1">
+      <c r="D171" s="3">
         <v>45071</v>
       </c>
       <c r="E171" t="s">
@@ -6321,7 +6361,7 @@
       <c r="B172" t="s">
         <v>6</v>
       </c>
-      <c r="D172" s="1">
+      <c r="D172" s="3">
         <v>45071</v>
       </c>
       <c r="E172" t="s">
@@ -6347,7 +6387,7 @@
       <c r="B173" t="s">
         <v>6</v>
       </c>
-      <c r="D173" s="1">
+      <c r="D173" s="3">
         <v>45071</v>
       </c>
       <c r="E173" t="s">
@@ -6373,7 +6413,7 @@
       <c r="B174" t="s">
         <v>6</v>
       </c>
-      <c r="D174" s="1">
+      <c r="D174" s="3">
         <v>45141</v>
       </c>
       <c r="E174" t="s">
@@ -6399,7 +6439,7 @@
       <c r="B175" t="s">
         <v>6</v>
       </c>
-      <c r="D175" s="1">
+      <c r="D175" s="3">
         <v>45141</v>
       </c>
       <c r="E175" t="s">
@@ -6425,7 +6465,7 @@
       <c r="B176" t="s">
         <v>6</v>
       </c>
-      <c r="D176" s="1">
+      <c r="D176" s="3">
         <v>45141</v>
       </c>
       <c r="E176" t="s">
@@ -6451,7 +6491,7 @@
       <c r="B177" t="s">
         <v>11</v>
       </c>
-      <c r="D177" s="1">
+      <c r="D177" s="3">
         <v>45071</v>
       </c>
       <c r="E177" t="s">
@@ -6477,7 +6517,7 @@
       <c r="B178" t="s">
         <v>11</v>
       </c>
-      <c r="D178" s="1">
+      <c r="D178" s="3">
         <v>45071</v>
       </c>
       <c r="E178" t="s">
@@ -6503,7 +6543,7 @@
       <c r="B179" t="s">
         <v>11</v>
       </c>
-      <c r="D179" s="1">
+      <c r="D179" s="3">
         <v>45071</v>
       </c>
       <c r="E179" t="s">
@@ -6529,7 +6569,7 @@
       <c r="B180" t="s">
         <v>11</v>
       </c>
-      <c r="D180" s="1">
+      <c r="D180" s="3">
         <v>45154</v>
       </c>
       <c r="E180" t="s">
@@ -6555,7 +6595,7 @@
       <c r="B181" t="s">
         <v>11</v>
       </c>
-      <c r="D181" s="1">
+      <c r="D181" s="3">
         <v>45154</v>
       </c>
       <c r="E181" t="s">
@@ -6581,7 +6621,7 @@
       <c r="B182" t="s">
         <v>11</v>
       </c>
-      <c r="D182" s="1">
+      <c r="D182" s="3">
         <v>45154</v>
       </c>
       <c r="E182" t="s">
@@ -6607,7 +6647,7 @@
       <c r="B183" t="s">
         <v>11</v>
       </c>
-      <c r="D183" s="1">
+      <c r="D183" s="3">
         <v>45072</v>
       </c>
       <c r="E183" t="s">
@@ -6633,7 +6673,7 @@
       <c r="B184" t="s">
         <v>11</v>
       </c>
-      <c r="D184" s="1">
+      <c r="D184" s="3">
         <v>45072</v>
       </c>
       <c r="E184" t="s">
@@ -6659,7 +6699,7 @@
       <c r="B185" t="s">
         <v>11</v>
       </c>
-      <c r="D185" s="1">
+      <c r="D185" s="3">
         <v>45072</v>
       </c>
       <c r="E185" t="s">
@@ -6685,7 +6725,7 @@
       <c r="B186" t="s">
         <v>11</v>
       </c>
-      <c r="D186" s="1">
+      <c r="D186" s="3">
         <v>45078</v>
       </c>
       <c r="E186" t="s">
@@ -6711,7 +6751,7 @@
       <c r="B187" t="s">
         <v>11</v>
       </c>
-      <c r="D187" s="1">
+      <c r="D187" s="3">
         <v>45078</v>
       </c>
       <c r="E187" t="s">
@@ -6737,7 +6777,7 @@
       <c r="B188" t="s">
         <v>11</v>
       </c>
-      <c r="D188" s="1">
+      <c r="D188" s="3">
         <v>45078</v>
       </c>
       <c r="E188" t="s">
@@ -6763,7 +6803,7 @@
       <c r="B189" t="s">
         <v>6</v>
       </c>
-      <c r="D189" s="1">
+      <c r="D189" s="3">
         <v>45082</v>
       </c>
       <c r="E189" t="s">
@@ -6789,7 +6829,7 @@
       <c r="B190" t="s">
         <v>6</v>
       </c>
-      <c r="D190" s="1">
+      <c r="D190" s="3">
         <v>45082</v>
       </c>
       <c r="E190" t="s">
@@ -6815,7 +6855,7 @@
       <c r="B191" t="s">
         <v>6</v>
       </c>
-      <c r="D191" s="1">
+      <c r="D191" s="3">
         <v>45082</v>
       </c>
       <c r="E191" t="s">
@@ -6841,7 +6881,7 @@
       <c r="B192" t="s">
         <v>11</v>
       </c>
-      <c r="D192" s="1">
+      <c r="D192" s="3">
         <v>45082</v>
       </c>
       <c r="E192" t="s">
@@ -6867,7 +6907,7 @@
       <c r="B193" t="s">
         <v>11</v>
       </c>
-      <c r="D193" s="1">
+      <c r="D193" s="3">
         <v>45082</v>
       </c>
       <c r="E193" t="s">
@@ -6893,7 +6933,7 @@
       <c r="B194" t="s">
         <v>11</v>
       </c>
-      <c r="D194" s="1">
+      <c r="D194" s="3">
         <v>45089</v>
       </c>
       <c r="E194" t="s">
@@ -6919,7 +6959,7 @@
       <c r="B195" t="s">
         <v>11</v>
       </c>
-      <c r="D195" s="1">
+      <c r="D195" s="3">
         <v>45086</v>
       </c>
       <c r="E195" t="s">
@@ -6945,7 +6985,7 @@
       <c r="B196" t="s">
         <v>11</v>
       </c>
-      <c r="D196" s="1">
+      <c r="D196" s="3">
         <v>45093</v>
       </c>
       <c r="E196" t="s">
@@ -6971,7 +7011,7 @@
       <c r="B197" t="s">
         <v>11</v>
       </c>
-      <c r="D197" s="1">
+      <c r="D197" s="3">
         <v>45093</v>
       </c>
       <c r="E197" t="s">
@@ -6997,7 +7037,7 @@
       <c r="B198" t="s">
         <v>11</v>
       </c>
-      <c r="D198" s="1">
+      <c r="D198" s="3">
         <v>45084</v>
       </c>
       <c r="E198" t="s">
@@ -7023,7 +7063,7 @@
       <c r="B199" t="s">
         <v>11</v>
       </c>
-      <c r="D199" s="1">
+      <c r="D199" s="3">
         <v>45084</v>
       </c>
       <c r="E199" t="s">
@@ -7049,7 +7089,7 @@
       <c r="B200" t="s">
         <v>11</v>
       </c>
-      <c r="D200" s="1">
+      <c r="D200" s="3">
         <v>45084</v>
       </c>
       <c r="E200" t="s">
@@ -7075,7 +7115,7 @@
       <c r="B201" t="s">
         <v>11</v>
       </c>
-      <c r="D201" s="1">
+      <c r="D201" s="3">
         <v>45085</v>
       </c>
       <c r="E201" t="s">
@@ -7101,7 +7141,7 @@
       <c r="B202" t="s">
         <v>11</v>
       </c>
-      <c r="D202" s="1">
+      <c r="D202" s="3">
         <v>45085</v>
       </c>
       <c r="E202" t="s">
@@ -7127,7 +7167,7 @@
       <c r="B203" t="s">
         <v>11</v>
       </c>
-      <c r="D203" s="1">
+      <c r="D203" s="3">
         <v>45085</v>
       </c>
       <c r="E203" t="s">
@@ -7153,7 +7193,7 @@
       <c r="B204" t="s">
         <v>6</v>
       </c>
-      <c r="D204" s="1">
+      <c r="D204" s="3">
         <v>45090</v>
       </c>
       <c r="E204" t="s">
@@ -7179,7 +7219,7 @@
       <c r="B205" t="s">
         <v>6</v>
       </c>
-      <c r="D205" s="1">
+      <c r="D205" s="3">
         <v>45090</v>
       </c>
       <c r="E205" t="s">
@@ -7205,7 +7245,7 @@
       <c r="B206" t="s">
         <v>6</v>
       </c>
-      <c r="D206" s="1">
+      <c r="D206" s="3">
         <v>45090</v>
       </c>
       <c r="E206" t="s">
@@ -7231,7 +7271,7 @@
       <c r="B207" t="s">
         <v>6</v>
       </c>
-      <c r="D207" s="1">
+      <c r="D207" s="3">
         <v>45090</v>
       </c>
       <c r="E207" t="s">
@@ -7257,7 +7297,7 @@
       <c r="B208" t="s">
         <v>6</v>
       </c>
-      <c r="D208" s="1">
+      <c r="D208" s="3">
         <v>45093</v>
       </c>
       <c r="E208" s="2">
@@ -7283,7 +7323,7 @@
       <c r="B209" t="s">
         <v>6</v>
       </c>
-      <c r="D209" s="1">
+      <c r="D209" s="3">
         <v>45093</v>
       </c>
       <c r="E209" t="s">
@@ -7309,7 +7349,7 @@
       <c r="B210" t="s">
         <v>11</v>
       </c>
-      <c r="D210" s="1">
+      <c r="D210" s="3">
         <v>45091</v>
       </c>
       <c r="E210" t="s">
@@ -7335,7 +7375,7 @@
       <c r="B211" t="s">
         <v>11</v>
       </c>
-      <c r="D211" s="1">
+      <c r="D211" s="3">
         <v>45091</v>
       </c>
       <c r="E211" t="s">
@@ -7361,7 +7401,7 @@
       <c r="B212" t="s">
         <v>11</v>
       </c>
-      <c r="D212" s="1">
+      <c r="D212" s="3">
         <v>45091</v>
       </c>
       <c r="E212" t="s">
@@ -7387,7 +7427,7 @@
       <c r="B213" t="s">
         <v>6</v>
       </c>
-      <c r="D213" s="1">
+      <c r="D213" s="3">
         <v>45092</v>
       </c>
       <c r="E213" t="s">
@@ -7413,7 +7453,7 @@
       <c r="B214" t="s">
         <v>6</v>
       </c>
-      <c r="D214" s="1">
+      <c r="D214" s="3">
         <v>45097</v>
       </c>
       <c r="E214" t="s">
@@ -7439,7 +7479,7 @@
       <c r="B215" t="s">
         <v>6</v>
       </c>
-      <c r="D215" s="1" t="s">
+      <c r="D215" s="3" t="s">
         <v>296</v>
       </c>
       <c r="E215" t="s">
@@ -7465,7 +7505,7 @@
       <c r="B216" t="s">
         <v>6</v>
       </c>
-      <c r="D216" s="1">
+      <c r="D216" s="3">
         <v>45096</v>
       </c>
       <c r="E216" t="s">
@@ -7491,7 +7531,7 @@
       <c r="B217" t="s">
         <v>6</v>
       </c>
-      <c r="D217" s="1">
+      <c r="D217" s="3">
         <v>45096</v>
       </c>
       <c r="E217" t="s">
@@ -7517,7 +7557,7 @@
       <c r="B218" t="s">
         <v>11</v>
       </c>
-      <c r="D218" s="1">
+      <c r="D218" s="3">
         <v>45096</v>
       </c>
       <c r="E218" t="s">
@@ -7543,7 +7583,7 @@
       <c r="B219" t="s">
         <v>11</v>
       </c>
-      <c r="D219" s="1">
+      <c r="D219" s="3">
         <v>45096</v>
       </c>
       <c r="E219" t="s">
@@ -7569,7 +7609,7 @@
       <c r="B220" t="s">
         <v>11</v>
       </c>
-      <c r="D220" s="1">
+      <c r="D220" s="3">
         <v>45096</v>
       </c>
       <c r="E220" t="s">
@@ -7595,7 +7635,7 @@
       <c r="B221" t="s">
         <v>6</v>
       </c>
-      <c r="D221" s="1">
+      <c r="D221" s="3">
         <v>45099</v>
       </c>
       <c r="E221" t="s">
@@ -7621,7 +7661,7 @@
       <c r="B222" t="s">
         <v>6</v>
       </c>
-      <c r="D222" s="1">
+      <c r="D222" s="3">
         <v>45099</v>
       </c>
       <c r="E222" t="s">
@@ -7647,7 +7687,7 @@
       <c r="B223" t="s">
         <v>6</v>
       </c>
-      <c r="D223" s="1">
+      <c r="D223" s="3">
         <v>45099</v>
       </c>
       <c r="E223" t="s">
@@ -7673,7 +7713,7 @@
       <c r="B224" t="s">
         <v>11</v>
       </c>
-      <c r="D224" s="1">
+      <c r="D224" s="3">
         <v>45126</v>
       </c>
       <c r="E224" s="2">
@@ -7699,7 +7739,7 @@
       <c r="B225" t="s">
         <v>11</v>
       </c>
-      <c r="D225" s="1">
+      <c r="D225" s="3">
         <v>45126</v>
       </c>
       <c r="E225" s="2">
@@ -7725,7 +7765,7 @@
       <c r="B226" t="s">
         <v>11</v>
       </c>
-      <c r="D226" s="1">
+      <c r="D226" s="3">
         <v>45126</v>
       </c>
       <c r="E226" s="2">
@@ -7751,7 +7791,7 @@
       <c r="B227" t="s">
         <v>11</v>
       </c>
-      <c r="D227" s="1">
+      <c r="D227" s="3">
         <v>45128</v>
       </c>
       <c r="E227" t="s">
@@ -7777,7 +7817,7 @@
       <c r="B228" t="s">
         <v>11</v>
       </c>
-      <c r="D228" s="1">
+      <c r="D228" s="3">
         <v>45128</v>
       </c>
       <c r="E228" t="s">
@@ -7803,7 +7843,7 @@
       <c r="B229" t="s">
         <v>11</v>
       </c>
-      <c r="D229" s="1">
+      <c r="D229" s="3">
         <v>45128</v>
       </c>
       <c r="E229" t="s">
@@ -7829,7 +7869,7 @@
       <c r="B230" t="s">
         <v>11</v>
       </c>
-      <c r="D230" s="1">
+      <c r="D230" s="3">
         <v>45134</v>
       </c>
       <c r="E230" s="2">
@@ -7855,7 +7895,7 @@
       <c r="B231" t="s">
         <v>11</v>
       </c>
-      <c r="D231" s="1">
+      <c r="D231" s="3">
         <v>45134</v>
       </c>
       <c r="E231" s="2">
@@ -7881,7 +7921,7 @@
       <c r="B232" t="s">
         <v>11</v>
       </c>
-      <c r="D232" s="1">
+      <c r="D232" s="3">
         <v>45134</v>
       </c>
       <c r="E232" s="2">
@@ -7907,7 +7947,7 @@
       <c r="B233" t="s">
         <v>11</v>
       </c>
-      <c r="D233" s="1">
+      <c r="D233" s="3">
         <v>45139</v>
       </c>
       <c r="E233" t="s">
@@ -7933,7 +7973,7 @@
       <c r="B234" t="s">
         <v>11</v>
       </c>
-      <c r="D234" s="1">
+      <c r="D234" s="3">
         <v>45139</v>
       </c>
       <c r="E234" t="s">
@@ -7959,7 +7999,7 @@
       <c r="B235" t="s">
         <v>11</v>
       </c>
-      <c r="D235" s="1">
+      <c r="D235" s="3">
         <v>45139</v>
       </c>
       <c r="E235" t="s">
@@ -7985,7 +8025,7 @@
       <c r="B236" t="s">
         <v>11</v>
       </c>
-      <c r="D236" s="1">
+      <c r="D236" s="3">
         <v>45141</v>
       </c>
       <c r="E236" t="s">
@@ -8011,7 +8051,7 @@
       <c r="B237" t="s">
         <v>11</v>
       </c>
-      <c r="D237" s="1">
+      <c r="D237" s="3">
         <v>45141</v>
       </c>
       <c r="E237" t="s">
@@ -8037,7 +8077,7 @@
       <c r="B238" t="s">
         <v>11</v>
       </c>
-      <c r="D238" s="1">
+      <c r="D238" s="3">
         <v>45141</v>
       </c>
       <c r="E238" t="s">
@@ -8063,7 +8103,7 @@
       <c r="B239" t="s">
         <v>6</v>
       </c>
-      <c r="D239" s="1">
+      <c r="D239" s="3">
         <v>45145</v>
       </c>
       <c r="E239" t="s">
@@ -8089,7 +8129,7 @@
       <c r="B240" t="s">
         <v>6</v>
       </c>
-      <c r="D240" s="1">
+      <c r="D240" s="3">
         <v>45145</v>
       </c>
       <c r="E240" t="s">
@@ -8115,7 +8155,7 @@
       <c r="B241" t="s">
         <v>6</v>
       </c>
-      <c r="D241" s="1">
+      <c r="D241" s="3">
         <v>45145</v>
       </c>
       <c r="E241" t="s">
@@ -8141,7 +8181,7 @@
       <c r="B242" t="s">
         <v>6</v>
       </c>
-      <c r="D242" s="1">
+      <c r="D242" s="3">
         <v>45261</v>
       </c>
       <c r="E242" t="s">
@@ -8167,7 +8207,7 @@
       <c r="B243" t="s">
         <v>6</v>
       </c>
-      <c r="D243" s="1">
+      <c r="D243" s="3">
         <v>45261</v>
       </c>
       <c r="E243" t="s">
@@ -8193,7 +8233,7 @@
       <c r="B244" t="s">
         <v>11</v>
       </c>
-      <c r="D244" s="1">
+      <c r="D244" s="3">
         <v>45134</v>
       </c>
       <c r="E244" t="s">
@@ -8219,7 +8259,7 @@
       <c r="B245" t="s">
         <v>11</v>
       </c>
-      <c r="D245" s="1">
+      <c r="D245" s="3">
         <v>45134</v>
       </c>
       <c r="E245" t="s">
@@ -8245,7 +8285,7 @@
       <c r="B246" t="s">
         <v>11</v>
       </c>
-      <c r="D246" s="1">
+      <c r="D246" s="3">
         <v>45134</v>
       </c>
       <c r="E246" t="s">
@@ -8271,7 +8311,7 @@
       <c r="B247" t="s">
         <v>11</v>
       </c>
-      <c r="D247" s="1">
+      <c r="D247" s="3">
         <v>45120</v>
       </c>
       <c r="E247" t="s">
@@ -8297,7 +8337,7 @@
       <c r="B248" t="s">
         <v>11</v>
       </c>
-      <c r="D248" s="1">
+      <c r="D248" s="3">
         <v>45134</v>
       </c>
       <c r="E248" t="s">
@@ -8323,7 +8363,7 @@
       <c r="B249" t="s">
         <v>11</v>
       </c>
-      <c r="D249" s="1">
+      <c r="D249" s="3">
         <v>45134</v>
       </c>
       <c r="E249" t="s">
@@ -8349,7 +8389,7 @@
       <c r="B250" t="s">
         <v>11</v>
       </c>
-      <c r="D250" s="1">
+      <c r="D250" s="3">
         <v>45141</v>
       </c>
       <c r="E250" t="s">
@@ -8375,7 +8415,7 @@
       <c r="B251" t="s">
         <v>11</v>
       </c>
-      <c r="D251" s="1">
+      <c r="D251" s="3">
         <v>45141</v>
       </c>
       <c r="E251" t="s">
@@ -8401,7 +8441,7 @@
       <c r="B252" t="s">
         <v>11</v>
       </c>
-      <c r="D252" s="1">
+      <c r="D252" s="3">
         <v>45141</v>
       </c>
       <c r="E252" t="s">

--- a/B3_102_limdata.xlsx
+++ b/B3_102_limdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yujia1998/Desktop/Work/Reading Center/B3VF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A7C60D-0053-9841-8385-DAED1CF3AE1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA730609-5DE1-B649-B7BC-DA26AB4C0F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -933,8 +933,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="168" formatCode="h:mm:ss;@"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -1416,8 +1417,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1775,14 +1776,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C414C91-2AD7-EA4E-96F3-D5F16D2BDCF8}">
   <dimension ref="A1:I252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
+      <selection activeCell="D254" sqref="D254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="19" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -1795,10 +1796,10 @@
       <c r="C1" t="s">
         <v>300</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>299</v>
       </c>
       <c r="F1" t="s">
@@ -1824,10 +1825,10 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>44999</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>173</v>
       </c>
       <c r="F2">
@@ -1853,10 +1854,10 @@
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>44999</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
         <v>170</v>
       </c>
       <c r="F3">
@@ -1882,10 +1883,10 @@
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>44999</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>172</v>
       </c>
       <c r="F4">
@@ -1911,10 +1912,10 @@
       <c r="C5">
         <v>2</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>45090</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="3" t="s">
         <v>171</v>
       </c>
       <c r="F5">
@@ -1940,10 +1941,10 @@
       <c r="C6">
         <v>2</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>45090</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="3" t="s">
         <v>175</v>
       </c>
       <c r="F6">
@@ -1969,10 +1970,10 @@
       <c r="C7">
         <v>2</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>45090</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="3" t="s">
         <v>174</v>
       </c>
       <c r="F7">
@@ -1998,10 +1999,10 @@
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>45012</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="3" t="s">
         <v>118</v>
       </c>
       <c r="F8">
@@ -2027,10 +2028,10 @@
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>45012</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="3" t="s">
         <v>119</v>
       </c>
       <c r="F9">
@@ -2056,10 +2057,10 @@
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>45012</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="3" t="s">
         <v>117</v>
       </c>
       <c r="F10">
@@ -2085,10 +2086,10 @@
       <c r="C11">
         <v>2</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>45084</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="3" t="s">
         <v>121</v>
       </c>
       <c r="F11">
@@ -2114,10 +2115,10 @@
       <c r="C12">
         <v>2</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>45084</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="3" t="s">
         <v>120</v>
       </c>
       <c r="F12">
@@ -2143,10 +2144,10 @@
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>45015</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="3" t="s">
         <v>68</v>
       </c>
       <c r="F13">
@@ -2172,10 +2173,10 @@
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>45015</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="3" t="s">
         <v>69</v>
       </c>
       <c r="F14">
@@ -2201,10 +2202,10 @@
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>45015</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="3" t="s">
         <v>70</v>
       </c>
       <c r="F15">
@@ -2230,10 +2231,10 @@
       <c r="C16">
         <v>2</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>45086</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="3" t="s">
         <v>72</v>
       </c>
       <c r="F16">
@@ -2259,10 +2260,10 @@
       <c r="C17">
         <v>2</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>45086</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="3" t="s">
         <v>71</v>
       </c>
       <c r="F17">
@@ -2288,10 +2289,10 @@
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>45020</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="3" t="s">
         <v>205</v>
       </c>
       <c r="F18">
@@ -2317,10 +2318,10 @@
       <c r="C19">
         <v>1</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <v>45020</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="3" t="s">
         <v>206</v>
       </c>
       <c r="F19">
@@ -2346,10 +2347,10 @@
       <c r="C20">
         <v>1</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
         <v>45020</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="3" t="s">
         <v>210</v>
       </c>
       <c r="F20">
@@ -2375,10 +2376,10 @@
       <c r="C21">
         <v>2</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="2">
         <v>45097</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="3" t="s">
         <v>208</v>
       </c>
       <c r="F21">
@@ -2404,10 +2405,10 @@
       <c r="C22">
         <v>2</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="2">
         <v>45097</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="3" t="s">
         <v>209</v>
       </c>
       <c r="F22">
@@ -2433,10 +2434,10 @@
       <c r="C23">
         <v>2</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="2">
         <v>45097</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="3" t="s">
         <v>207</v>
       </c>
       <c r="F23">
@@ -2462,10 +2463,10 @@
       <c r="C24">
         <v>1</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="2">
         <v>45027</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="3" t="s">
         <v>248</v>
       </c>
       <c r="F24">
@@ -2491,10 +2492,10 @@
       <c r="C25">
         <v>1</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="2">
         <v>45048</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="3" t="s">
         <v>249</v>
       </c>
       <c r="F25">
@@ -2520,10 +2521,10 @@
       <c r="C26">
         <v>1</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="2">
         <v>45048</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="3" t="s">
         <v>250</v>
       </c>
       <c r="F26">
@@ -2549,10 +2550,10 @@
       <c r="C27">
         <v>2</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="2">
         <v>45118</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="3" t="s">
         <v>253</v>
       </c>
       <c r="F27">
@@ -2578,10 +2579,10 @@
       <c r="C28">
         <v>2</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="2">
         <v>45118</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="3" t="s">
         <v>251</v>
       </c>
       <c r="F28">
@@ -2607,10 +2608,10 @@
       <c r="C29">
         <v>2</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="2">
         <v>45118</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="3" t="s">
         <v>252</v>
       </c>
       <c r="F29">
@@ -2636,10 +2637,10 @@
       <c r="C30">
         <v>1</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="2">
         <v>45027</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="3" t="s">
         <v>237</v>
       </c>
       <c r="F30">
@@ -2665,10 +2666,10 @@
       <c r="C31">
         <v>1</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="2">
         <v>45033</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="3" t="s">
         <v>234</v>
       </c>
       <c r="F31">
@@ -2694,10 +2695,10 @@
       <c r="C32">
         <v>1</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="2">
         <v>45033</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="3" t="s">
         <v>233</v>
       </c>
       <c r="F32">
@@ -2723,10 +2724,10 @@
       <c r="C33">
         <v>2</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="2">
         <v>45107</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="3" t="s">
         <v>235</v>
       </c>
       <c r="F33">
@@ -2752,10 +2753,10 @@
       <c r="C34">
         <v>2</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="2">
         <v>45107</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="3" t="s">
         <v>236</v>
       </c>
       <c r="F34">
@@ -2781,10 +2782,10 @@
       <c r="C35">
         <v>2</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="2">
         <v>45107</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="3" t="s">
         <v>238</v>
       </c>
       <c r="F35">
@@ -2810,10 +2811,10 @@
       <c r="C36">
         <v>1</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="2">
         <v>45029</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="3" t="s">
         <v>187</v>
       </c>
       <c r="F36">
@@ -2839,10 +2840,10 @@
       <c r="C37">
         <v>1</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="2">
         <v>45029</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="3" t="s">
         <v>189</v>
       </c>
       <c r="F37">
@@ -2868,10 +2869,10 @@
       <c r="C38">
         <v>1</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="2">
         <v>45029</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="3" t="s">
         <v>185</v>
       </c>
       <c r="F38">
@@ -2897,10 +2898,10 @@
       <c r="C39">
         <v>2</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="2">
         <v>45091</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="3" t="s">
         <v>188</v>
       </c>
       <c r="F39">
@@ -2926,10 +2927,10 @@
       <c r="C40">
         <v>2</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="2">
         <v>45091</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="3" t="s">
         <v>184</v>
       </c>
       <c r="F40">
@@ -2955,10 +2956,10 @@
       <c r="C41">
         <v>2</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="2">
         <v>45091</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="3" t="s">
         <v>186</v>
       </c>
       <c r="F41">
@@ -2981,10 +2982,13 @@
       <c r="B42" t="s">
         <v>11</v>
       </c>
-      <c r="D42" s="3">
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" s="2">
         <v>45033</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="3" t="s">
         <v>88</v>
       </c>
       <c r="F42">
@@ -3007,10 +3011,13 @@
       <c r="B43" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="3">
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43" s="2">
         <v>45033</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="3" t="s">
         <v>87</v>
       </c>
       <c r="F43">
@@ -3033,10 +3040,13 @@
       <c r="B44" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="3">
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44" s="2">
         <v>45033</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="3" t="s">
         <v>85</v>
       </c>
       <c r="F44">
@@ -3059,10 +3069,13 @@
       <c r="B45" t="s">
         <v>11</v>
       </c>
-      <c r="D45" s="3">
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45" s="2">
         <v>45103</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="3" t="s">
         <v>89</v>
       </c>
       <c r="F45">
@@ -3085,10 +3098,13 @@
       <c r="B46" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="3">
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46" s="2">
         <v>45103</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="3" t="s">
         <v>86</v>
       </c>
       <c r="F46">
@@ -3111,10 +3127,13 @@
       <c r="B47" t="s">
         <v>11</v>
       </c>
-      <c r="D47" s="3">
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47" s="2">
         <v>45103</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="3" t="s">
         <v>84</v>
       </c>
       <c r="F47">
@@ -3137,10 +3156,13 @@
       <c r="B48" t="s">
         <v>11</v>
       </c>
-      <c r="D48" s="3">
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48" s="2">
         <v>45035</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="3" t="s">
         <v>216</v>
       </c>
       <c r="F48">
@@ -3163,10 +3185,13 @@
       <c r="B49" t="s">
         <v>11</v>
       </c>
-      <c r="D49" s="3">
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49" s="2">
         <v>45035</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="3" t="s">
         <v>215</v>
       </c>
       <c r="F49">
@@ -3189,10 +3214,13 @@
       <c r="B50" t="s">
         <v>11</v>
       </c>
-      <c r="D50" s="3">
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50" s="2">
         <v>45035</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="3" t="s">
         <v>217</v>
       </c>
       <c r="F50">
@@ -3215,10 +3243,13 @@
       <c r="B51" t="s">
         <v>11</v>
       </c>
-      <c r="D51" s="3">
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51" s="2">
         <v>45119</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="3" t="s">
         <v>213</v>
       </c>
       <c r="F51">
@@ -3241,10 +3272,13 @@
       <c r="B52" t="s">
         <v>11</v>
       </c>
-      <c r="D52" s="3">
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="D52" s="2">
         <v>45119</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="3" t="s">
         <v>214</v>
       </c>
       <c r="F52">
@@ -3267,10 +3301,13 @@
       <c r="B53" t="s">
         <v>11</v>
       </c>
-      <c r="D53" s="3">
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53" s="2">
         <v>45119</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="3" t="s">
         <v>212</v>
       </c>
       <c r="F53">
@@ -3293,10 +3330,13 @@
       <c r="B54" t="s">
         <v>6</v>
       </c>
-      <c r="D54" s="3">
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54" s="2">
         <v>45036</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54" s="3">
         <v>0.48010416666666672</v>
       </c>
       <c r="F54">
@@ -3319,10 +3359,13 @@
       <c r="B55" t="s">
         <v>6</v>
       </c>
-      <c r="D55" s="3">
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55" s="2">
         <v>45036</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E55" s="3">
         <v>0.49473379629629632</v>
       </c>
       <c r="F55">
@@ -3345,10 +3388,13 @@
       <c r="B56" t="s">
         <v>6</v>
       </c>
-      <c r="D56" s="3">
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56" s="2">
         <v>45036</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56" s="3">
         <v>0.51745370370370369</v>
       </c>
       <c r="F56">
@@ -3371,10 +3417,13 @@
       <c r="B57" t="s">
         <v>11</v>
       </c>
-      <c r="D57" s="3">
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57" s="2">
         <v>45037</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F57">
@@ -3397,10 +3446,13 @@
       <c r="B58" t="s">
         <v>11</v>
       </c>
-      <c r="D58" s="3">
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58" s="2">
         <v>45037</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F58">
@@ -3423,10 +3475,13 @@
       <c r="B59" t="s">
         <v>11</v>
       </c>
-      <c r="D59" s="3">
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59" s="2">
         <v>45037</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="3" t="s">
         <v>28</v>
       </c>
       <c r="F59">
@@ -3449,10 +3504,13 @@
       <c r="B60" t="s">
         <v>11</v>
       </c>
-      <c r="D60" s="3">
+      <c r="C60">
+        <v>2</v>
+      </c>
+      <c r="D60" s="2">
         <v>45121</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E60" s="3">
         <v>0.40256944444444448</v>
       </c>
       <c r="F60">
@@ -3475,10 +3533,13 @@
       <c r="B61" t="s">
         <v>11</v>
       </c>
-      <c r="D61" s="3">
+      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="D61" s="2">
         <v>45121</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F61">
@@ -3501,10 +3562,13 @@
       <c r="B62" t="s">
         <v>11</v>
       </c>
-      <c r="D62" s="3">
+      <c r="C62">
+        <v>2</v>
+      </c>
+      <c r="D62" s="2">
         <v>45121</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F62">
@@ -3527,10 +3591,13 @@
       <c r="B63" t="s">
         <v>11</v>
       </c>
-      <c r="D63" s="3">
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63" s="2">
         <v>45040</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="3" t="s">
         <v>75</v>
       </c>
       <c r="F63">
@@ -3553,10 +3620,13 @@
       <c r="B64" t="s">
         <v>11</v>
       </c>
-      <c r="D64" s="3">
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64" s="2">
         <v>45040</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="3" t="s">
         <v>77</v>
       </c>
       <c r="F64">
@@ -3579,10 +3649,13 @@
       <c r="B65" t="s">
         <v>11</v>
       </c>
-      <c r="D65" s="3">
+      <c r="C65">
+        <v>2</v>
+      </c>
+      <c r="D65" s="2">
         <v>45126</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F65">
@@ -3605,10 +3678,13 @@
       <c r="B66" t="s">
         <v>11</v>
       </c>
-      <c r="D66" s="3">
+      <c r="C66">
+        <v>2</v>
+      </c>
+      <c r="D66" s="2">
         <v>45126</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="3" t="s">
         <v>78</v>
       </c>
       <c r="F66">
@@ -3631,10 +3707,13 @@
       <c r="B67" t="s">
         <v>11</v>
       </c>
-      <c r="D67" s="3">
+      <c r="C67">
+        <v>2</v>
+      </c>
+      <c r="D67" s="2">
         <v>45126</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" s="3" t="s">
         <v>76</v>
       </c>
       <c r="F67">
@@ -3657,10 +3736,13 @@
       <c r="B68" t="s">
         <v>6</v>
       </c>
-      <c r="D68" s="3">
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68" s="2">
         <v>45040</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F68">
@@ -3683,10 +3765,13 @@
       <c r="B69" t="s">
         <v>6</v>
       </c>
-      <c r="D69" s="3">
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69" s="2">
         <v>45040</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E69" s="3" t="s">
         <v>41</v>
       </c>
       <c r="F69">
@@ -3709,10 +3794,13 @@
       <c r="B70" t="s">
         <v>6</v>
       </c>
-      <c r="D70" s="3">
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70" s="2">
         <v>45040</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E70" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F70">
@@ -3735,10 +3823,13 @@
       <c r="B71" t="s">
         <v>6</v>
       </c>
-      <c r="D71" s="3">
+      <c r="C71">
+        <v>2</v>
+      </c>
+      <c r="D71" s="2">
         <v>45124</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E71" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F71">
@@ -3761,10 +3852,13 @@
       <c r="B72" t="s">
         <v>6</v>
       </c>
-      <c r="D72" s="3">
+      <c r="C72">
+        <v>2</v>
+      </c>
+      <c r="D72" s="2">
         <v>45124</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E72" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F72">
@@ -3787,10 +3881,13 @@
       <c r="B73" t="s">
         <v>6</v>
       </c>
-      <c r="D73" s="3">
+      <c r="C73">
+        <v>2</v>
+      </c>
+      <c r="D73" s="2">
         <v>45124</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E73" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F73">
@@ -3813,10 +3910,13 @@
       <c r="B74" t="s">
         <v>11</v>
       </c>
-      <c r="D74" s="3">
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74" s="2">
         <v>45048</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E74" s="3" t="s">
         <v>290</v>
       </c>
       <c r="F74">
@@ -3839,10 +3939,13 @@
       <c r="B75" t="s">
         <v>11</v>
       </c>
-      <c r="D75" s="3">
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75" s="2">
         <v>45048</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E75" s="3" t="s">
         <v>294</v>
       </c>
       <c r="F75">
@@ -3865,10 +3968,13 @@
       <c r="B76" t="s">
         <v>11</v>
       </c>
-      <c r="D76" s="3">
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76" s="2">
         <v>45048</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E76" s="3" t="s">
         <v>293</v>
       </c>
       <c r="F76">
@@ -3891,10 +3997,13 @@
       <c r="B77" t="s">
         <v>11</v>
       </c>
-      <c r="D77" s="3">
+      <c r="C77">
+        <v>2</v>
+      </c>
+      <c r="D77" s="2">
         <v>45132</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E77" s="3" t="s">
         <v>292</v>
       </c>
       <c r="F77">
@@ -3917,10 +4026,13 @@
       <c r="B78" t="s">
         <v>11</v>
       </c>
-      <c r="D78" s="3">
+      <c r="C78">
+        <v>2</v>
+      </c>
+      <c r="D78" s="2">
         <v>45132</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E78" s="3" t="s">
         <v>291</v>
       </c>
       <c r="F78">
@@ -3943,10 +4055,13 @@
       <c r="B79" t="s">
         <v>11</v>
       </c>
-      <c r="D79" s="3">
+      <c r="C79">
+        <v>2</v>
+      </c>
+      <c r="D79" s="2">
         <v>45132</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E79" s="3" t="s">
         <v>289</v>
       </c>
       <c r="F79">
@@ -3969,10 +4084,13 @@
       <c r="B80" t="s">
         <v>11</v>
       </c>
-      <c r="D80" s="3">
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80" s="2">
         <v>45070</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E80" s="3" t="s">
         <v>140</v>
       </c>
       <c r="F80">
@@ -3995,10 +4113,13 @@
       <c r="B81" t="s">
         <v>11</v>
       </c>
-      <c r="D81" s="3">
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81" s="2">
         <v>45070</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E81" s="3" t="s">
         <v>141</v>
       </c>
       <c r="F81">
@@ -4021,10 +4142,13 @@
       <c r="B82" t="s">
         <v>11</v>
       </c>
-      <c r="D82" s="3">
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82" s="2">
         <v>45070</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E82" s="3" t="s">
         <v>142</v>
       </c>
       <c r="F82">
@@ -4047,10 +4171,13 @@
       <c r="B83" t="s">
         <v>11</v>
       </c>
-      <c r="D83" s="3">
+      <c r="C83">
+        <v>2</v>
+      </c>
+      <c r="D83" s="2">
         <v>45126</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E83" s="3" t="s">
         <v>138</v>
       </c>
       <c r="F83">
@@ -4073,10 +4200,13 @@
       <c r="B84" t="s">
         <v>11</v>
       </c>
-      <c r="D84" s="3">
+      <c r="C84">
+        <v>2</v>
+      </c>
+      <c r="D84" s="2">
         <v>45126</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E84" s="3" t="s">
         <v>139</v>
       </c>
       <c r="F84">
@@ -4099,10 +4229,13 @@
       <c r="B85" t="s">
         <v>11</v>
       </c>
-      <c r="D85" s="3">
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85" s="2">
         <v>45042</v>
       </c>
-      <c r="E85" s="2">
+      <c r="E85" s="3">
         <v>0.3112037037037037</v>
       </c>
       <c r="F85">
@@ -4125,10 +4258,13 @@
       <c r="B86" t="s">
         <v>11</v>
       </c>
-      <c r="D86" s="3">
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86" s="2">
         <v>45042</v>
       </c>
-      <c r="E86" s="2">
+      <c r="E86" s="3">
         <v>0.33561342592592597</v>
       </c>
       <c r="F86">
@@ -4151,10 +4287,13 @@
       <c r="B87" t="s">
         <v>11</v>
       </c>
-      <c r="D87" s="3">
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87" s="2">
         <v>45042</v>
       </c>
-      <c r="E87" s="2">
+      <c r="E87" s="3">
         <v>0.3611111111111111</v>
       </c>
       <c r="F87">
@@ -4177,10 +4316,13 @@
       <c r="B88" t="s">
         <v>11</v>
       </c>
-      <c r="D88" s="3">
+      <c r="C88">
+        <v>2</v>
+      </c>
+      <c r="D88" s="2">
         <v>45103</v>
       </c>
-      <c r="E88" s="2">
+      <c r="E88" s="3">
         <v>0.35541666666666666</v>
       </c>
       <c r="F88">
@@ -4203,10 +4345,13 @@
       <c r="B89" t="s">
         <v>11</v>
       </c>
-      <c r="D89" s="3">
+      <c r="C89">
+        <v>2</v>
+      </c>
+      <c r="D89" s="2">
         <v>45103</v>
       </c>
-      <c r="E89" s="2">
+      <c r="E89" s="3">
         <v>0.3871412037037037</v>
       </c>
       <c r="F89">
@@ -4229,10 +4374,13 @@
       <c r="B90" t="s">
         <v>11</v>
       </c>
-      <c r="D90" s="3">
+      <c r="C90">
+        <v>2</v>
+      </c>
+      <c r="D90" s="2">
         <v>45103</v>
       </c>
-      <c r="E90" s="2">
+      <c r="E90" s="3">
         <v>0.41478009259259258</v>
       </c>
       <c r="F90">
@@ -4255,10 +4403,13 @@
       <c r="B91" t="s">
         <v>6</v>
       </c>
-      <c r="D91" s="3">
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91" s="2">
         <v>45042</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E91" s="3" t="s">
         <v>56</v>
       </c>
       <c r="F91">
@@ -4281,10 +4432,13 @@
       <c r="B92" t="s">
         <v>6</v>
       </c>
-      <c r="D92" s="3">
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92" s="2">
         <v>45042</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E92" s="3" t="s">
         <v>57</v>
       </c>
       <c r="F92">
@@ -4307,10 +4461,13 @@
       <c r="B93" t="s">
         <v>6</v>
       </c>
-      <c r="D93" s="3">
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93" s="2">
         <v>45042</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E93" s="3" t="s">
         <v>58</v>
       </c>
       <c r="F93">
@@ -4333,10 +4490,13 @@
       <c r="B94" t="s">
         <v>11</v>
       </c>
-      <c r="D94" s="3">
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94" s="2">
         <v>45044</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E94" s="3" t="s">
         <v>178</v>
       </c>
       <c r="F94">
@@ -4359,10 +4519,13 @@
       <c r="B95" t="s">
         <v>11</v>
       </c>
-      <c r="D95" s="3">
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95" s="2">
         <v>45044</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E95" s="3" t="s">
         <v>177</v>
       </c>
       <c r="F95">
@@ -4385,10 +4548,13 @@
       <c r="B96" t="s">
         <v>11</v>
       </c>
-      <c r="D96" s="3">
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96" s="2">
         <v>45044</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E96" s="3" t="s">
         <v>179</v>
       </c>
       <c r="F96">
@@ -4411,10 +4577,13 @@
       <c r="B97" t="s">
         <v>6</v>
       </c>
-      <c r="D97" s="3">
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97" s="2">
         <v>45047</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E97" s="3" t="s">
         <v>261</v>
       </c>
       <c r="F97">
@@ -4437,10 +4606,13 @@
       <c r="B98" t="s">
         <v>6</v>
       </c>
-      <c r="D98" s="3">
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98" s="2">
         <v>45047</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E98" s="3" t="s">
         <v>258</v>
       </c>
       <c r="F98">
@@ -4463,10 +4635,13 @@
       <c r="B99" t="s">
         <v>6</v>
       </c>
-      <c r="D99" s="3">
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99" s="2">
         <v>45047</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E99" s="3" t="s">
         <v>260</v>
       </c>
       <c r="F99">
@@ -4489,10 +4664,13 @@
       <c r="B100" t="s">
         <v>6</v>
       </c>
-      <c r="D100" s="3">
+      <c r="C100">
+        <v>2</v>
+      </c>
+      <c r="D100" s="2">
         <v>45124</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E100" s="3" t="s">
         <v>256</v>
       </c>
       <c r="F100">
@@ -4515,10 +4693,13 @@
       <c r="B101" t="s">
         <v>6</v>
       </c>
-      <c r="D101" s="3">
+      <c r="C101">
+        <v>2</v>
+      </c>
+      <c r="D101" s="2">
         <v>45124</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E101" s="3" t="s">
         <v>259</v>
       </c>
       <c r="F101">
@@ -4541,10 +4722,13 @@
       <c r="B102" t="s">
         <v>6</v>
       </c>
-      <c r="D102" s="3">
+      <c r="C102">
+        <v>2</v>
+      </c>
+      <c r="D102" s="2">
         <v>45124</v>
       </c>
-      <c r="E102" t="s">
+      <c r="E102" s="3" t="s">
         <v>257</v>
       </c>
       <c r="F102">
@@ -4567,10 +4751,13 @@
       <c r="B103" t="s">
         <v>11</v>
       </c>
-      <c r="D103" s="3">
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103" s="2">
         <v>45047</v>
       </c>
-      <c r="E103" t="s">
+      <c r="E103" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F103">
@@ -4593,10 +4780,13 @@
       <c r="B104" t="s">
         <v>11</v>
       </c>
-      <c r="D104" s="3">
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104" s="2">
         <v>45047</v>
       </c>
-      <c r="E104" t="s">
+      <c r="E104" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F104">
@@ -4619,10 +4809,13 @@
       <c r="B105" t="s">
         <v>11</v>
       </c>
-      <c r="D105" s="3">
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105" s="2">
         <v>45047</v>
       </c>
-      <c r="E105" t="s">
+      <c r="E105" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F105">
@@ -4645,10 +4838,13 @@
       <c r="B106" t="s">
         <v>11</v>
       </c>
-      <c r="D106" s="3">
+      <c r="C106">
+        <v>2</v>
+      </c>
+      <c r="D106" s="2">
         <v>45117</v>
       </c>
-      <c r="E106" t="s">
+      <c r="E106" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F106">
@@ -4671,10 +4867,13 @@
       <c r="B107" t="s">
         <v>11</v>
       </c>
-      <c r="D107" s="3">
+      <c r="C107">
+        <v>2</v>
+      </c>
+      <c r="D107" s="2">
         <v>45117</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E107" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F107">
@@ -4697,10 +4896,13 @@
       <c r="B108" t="s">
         <v>11</v>
       </c>
-      <c r="D108" s="3">
+      <c r="C108">
+        <v>2</v>
+      </c>
+      <c r="D108" s="2">
         <v>45117</v>
       </c>
-      <c r="E108" t="s">
+      <c r="E108" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F108">
@@ -4723,10 +4925,13 @@
       <c r="B109" t="s">
         <v>6</v>
       </c>
-      <c r="D109" s="3">
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109" s="2">
         <v>45049</v>
       </c>
-      <c r="E109" t="s">
+      <c r="E109" s="3" t="s">
         <v>242</v>
       </c>
       <c r="F109">
@@ -4749,10 +4954,13 @@
       <c r="B110" t="s">
         <v>6</v>
       </c>
-      <c r="D110" s="3">
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110" s="2">
         <v>45049</v>
       </c>
-      <c r="E110" t="s">
+      <c r="E110" s="3" t="s">
         <v>244</v>
       </c>
       <c r="F110">
@@ -4775,10 +4983,13 @@
       <c r="B111" t="s">
         <v>6</v>
       </c>
-      <c r="D111" s="3">
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111" s="2">
         <v>45049</v>
       </c>
-      <c r="E111" t="s">
+      <c r="E111" s="3" t="s">
         <v>241</v>
       </c>
       <c r="F111">
@@ -4801,10 +5012,13 @@
       <c r="B112" t="s">
         <v>6</v>
       </c>
-      <c r="D112" s="3">
+      <c r="C112">
+        <v>2</v>
+      </c>
+      <c r="D112" s="2">
         <v>45120</v>
       </c>
-      <c r="E112" t="s">
+      <c r="E112" s="3" t="s">
         <v>245</v>
       </c>
       <c r="F112">
@@ -4827,10 +5041,13 @@
       <c r="B113" t="s">
         <v>6</v>
       </c>
-      <c r="D113" s="3">
+      <c r="C113">
+        <v>2</v>
+      </c>
+      <c r="D113" s="2">
         <v>45120</v>
       </c>
-      <c r="E113" t="s">
+      <c r="E113" s="3" t="s">
         <v>240</v>
       </c>
       <c r="F113">
@@ -4853,10 +5070,13 @@
       <c r="B114" t="s">
         <v>6</v>
       </c>
-      <c r="D114" s="3">
+      <c r="C114">
+        <v>2</v>
+      </c>
+      <c r="D114" s="2">
         <v>45120</v>
       </c>
-      <c r="E114" t="s">
+      <c r="E114" s="3" t="s">
         <v>243</v>
       </c>
       <c r="F114">
@@ -4879,10 +5099,13 @@
       <c r="B115" t="s">
         <v>6</v>
       </c>
-      <c r="D115" s="3">
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115" s="2">
         <v>45037</v>
       </c>
-      <c r="E115" t="s">
+      <c r="E115" s="3" t="s">
         <v>54</v>
       </c>
       <c r="F115">
@@ -4905,10 +5128,13 @@
       <c r="B116" t="s">
         <v>6</v>
       </c>
-      <c r="D116" s="3">
+      <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="D116" s="2">
         <v>45051</v>
       </c>
-      <c r="E116" t="s">
+      <c r="E116" s="3" t="s">
         <v>53</v>
       </c>
       <c r="F116">
@@ -4931,10 +5157,13 @@
       <c r="B117" t="s">
         <v>6</v>
       </c>
-      <c r="D117" s="3">
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117" s="2">
         <v>45051</v>
       </c>
-      <c r="E117" t="s">
+      <c r="E117" s="3" t="s">
         <v>52</v>
       </c>
       <c r="F117">
@@ -4957,10 +5186,13 @@
       <c r="B118" t="s">
         <v>6</v>
       </c>
-      <c r="D118" s="3">
+      <c r="C118">
+        <v>2</v>
+      </c>
+      <c r="D118" s="2">
         <v>45100</v>
       </c>
-      <c r="E118" s="2">
+      <c r="E118" s="3">
         <v>0.57521990740740747</v>
       </c>
       <c r="F118">
@@ -4983,10 +5215,13 @@
       <c r="B119" t="s">
         <v>6</v>
       </c>
-      <c r="D119" s="3">
+      <c r="C119">
+        <v>2</v>
+      </c>
+      <c r="D119" s="2">
         <v>45100</v>
       </c>
-      <c r="E119" s="2">
+      <c r="E119" s="3">
         <v>0.58885416666666668</v>
       </c>
       <c r="F119">
@@ -5009,10 +5244,13 @@
       <c r="B120" t="s">
         <v>6</v>
       </c>
-      <c r="D120" s="3">
+      <c r="C120">
+        <v>2</v>
+      </c>
+      <c r="D120" s="2">
         <v>45100</v>
       </c>
-      <c r="E120" t="s">
+      <c r="E120" s="3" t="s">
         <v>51</v>
       </c>
       <c r="F120">
@@ -5035,10 +5273,13 @@
       <c r="B121" t="s">
         <v>6</v>
       </c>
-      <c r="D121" s="3">
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="D121" s="2">
         <v>45139</v>
       </c>
-      <c r="E121" t="s">
+      <c r="E121" s="3" t="s">
         <v>275</v>
       </c>
       <c r="F121">
@@ -5061,10 +5302,13 @@
       <c r="B122" t="s">
         <v>6</v>
       </c>
-      <c r="D122" s="3">
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122" s="2">
         <v>45139</v>
       </c>
-      <c r="E122" t="s">
+      <c r="E122" s="3" t="s">
         <v>276</v>
       </c>
       <c r="F122">
@@ -5087,10 +5331,13 @@
       <c r="B123" t="s">
         <v>6</v>
       </c>
-      <c r="D123" s="3">
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="D123" s="2">
         <v>45145</v>
       </c>
-      <c r="E123" t="s">
+      <c r="E123" s="3" t="s">
         <v>274</v>
       </c>
       <c r="F123">
@@ -5113,10 +5360,13 @@
       <c r="B124" t="s">
         <v>11</v>
       </c>
-      <c r="D124" s="3">
+      <c r="C124">
+        <v>1</v>
+      </c>
+      <c r="D124" s="2">
         <v>45054</v>
       </c>
-      <c r="E124" t="s">
+      <c r="E124" s="3" t="s">
         <v>153</v>
       </c>
       <c r="F124">
@@ -5139,10 +5389,13 @@
       <c r="B125" t="s">
         <v>11</v>
       </c>
-      <c r="D125" s="3">
+      <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="D125" s="2">
         <v>45054</v>
       </c>
-      <c r="E125" t="s">
+      <c r="E125" s="3" t="s">
         <v>152</v>
       </c>
       <c r="F125">
@@ -5165,10 +5418,13 @@
       <c r="B126" t="s">
         <v>11</v>
       </c>
-      <c r="D126" s="3">
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="D126" s="2">
         <v>45054</v>
       </c>
-      <c r="E126" t="s">
+      <c r="E126" s="3" t="s">
         <v>149</v>
       </c>
       <c r="F126">
@@ -5191,10 +5447,13 @@
       <c r="B127" t="s">
         <v>11</v>
       </c>
-      <c r="D127" s="3">
+      <c r="C127">
+        <v>2</v>
+      </c>
+      <c r="D127" s="2">
         <v>45124</v>
       </c>
-      <c r="E127" t="s">
+      <c r="E127" s="3" t="s">
         <v>150</v>
       </c>
       <c r="F127">
@@ -5217,10 +5476,13 @@
       <c r="B128" t="s">
         <v>11</v>
       </c>
-      <c r="D128" s="3">
+      <c r="C128">
+        <v>2</v>
+      </c>
+      <c r="D128" s="2">
         <v>45124</v>
       </c>
-      <c r="E128" t="s">
+      <c r="E128" s="3" t="s">
         <v>151</v>
       </c>
       <c r="F128">
@@ -5243,10 +5505,13 @@
       <c r="B129" t="s">
         <v>11</v>
       </c>
-      <c r="D129" s="3">
+      <c r="C129">
+        <v>2</v>
+      </c>
+      <c r="D129" s="2">
         <v>45124</v>
       </c>
-      <c r="E129" t="s">
+      <c r="E129" s="3" t="s">
         <v>148</v>
       </c>
       <c r="F129">
@@ -5269,10 +5534,13 @@
       <c r="B130" t="s">
         <v>11</v>
       </c>
-      <c r="D130" s="3">
+      <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="D130" s="2">
         <v>45058</v>
       </c>
-      <c r="E130" t="s">
+      <c r="E130" s="3" t="s">
         <v>231</v>
       </c>
       <c r="F130">
@@ -5295,10 +5563,13 @@
       <c r="B131" t="s">
         <v>11</v>
       </c>
-      <c r="D131" s="3">
+      <c r="C131">
+        <v>1</v>
+      </c>
+      <c r="D131" s="2">
         <v>45058</v>
       </c>
-      <c r="E131" t="s">
+      <c r="E131" s="3" t="s">
         <v>227</v>
       </c>
       <c r="F131">
@@ -5321,10 +5592,13 @@
       <c r="B132" t="s">
         <v>11</v>
       </c>
-      <c r="D132" s="3">
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="D132" s="2">
         <v>45058</v>
       </c>
-      <c r="E132" t="s">
+      <c r="E132" s="3" t="s">
         <v>229</v>
       </c>
       <c r="F132">
@@ -5347,10 +5621,13 @@
       <c r="B133" t="s">
         <v>11</v>
       </c>
-      <c r="D133" s="3">
+      <c r="C133">
+        <v>2</v>
+      </c>
+      <c r="D133" s="2">
         <v>45138</v>
       </c>
-      <c r="E133" t="s">
+      <c r="E133" s="3" t="s">
         <v>230</v>
       </c>
       <c r="F133">
@@ -5373,10 +5650,13 @@
       <c r="B134" t="s">
         <v>11</v>
       </c>
-      <c r="D134" s="3">
+      <c r="C134">
+        <v>2</v>
+      </c>
+      <c r="D134" s="2">
         <v>45138</v>
       </c>
-      <c r="E134" t="s">
+      <c r="E134" s="3" t="s">
         <v>226</v>
       </c>
       <c r="F134">
@@ -5399,10 +5679,13 @@
       <c r="B135" t="s">
         <v>11</v>
       </c>
-      <c r="D135" s="3">
+      <c r="C135">
+        <v>2</v>
+      </c>
+      <c r="D135" s="2">
         <v>45138</v>
       </c>
-      <c r="E135" t="s">
+      <c r="E135" s="3" t="s">
         <v>228</v>
       </c>
       <c r="F135">
@@ -5425,10 +5708,13 @@
       <c r="B136" t="s">
         <v>11</v>
       </c>
-      <c r="D136" s="3">
+      <c r="C136">
+        <v>1</v>
+      </c>
+      <c r="D136" s="2">
         <v>45058</v>
       </c>
-      <c r="E136" t="s">
+      <c r="E136" s="3" t="s">
         <v>96</v>
       </c>
       <c r="F136">
@@ -5451,10 +5737,13 @@
       <c r="B137" t="s">
         <v>11</v>
       </c>
-      <c r="D137" s="3">
+      <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="D137" s="2">
         <v>45058</v>
       </c>
-      <c r="E137" t="s">
+      <c r="E137" s="3" t="s">
         <v>97</v>
       </c>
       <c r="F137">
@@ -5477,10 +5766,13 @@
       <c r="B138" t="s">
         <v>11</v>
       </c>
-      <c r="D138" s="3">
+      <c r="C138">
+        <v>2</v>
+      </c>
+      <c r="D138" s="2">
         <v>45145</v>
       </c>
-      <c r="E138" t="s">
+      <c r="E138" s="3" t="s">
         <v>99</v>
       </c>
       <c r="F138">
@@ -5503,10 +5795,13 @@
       <c r="B139" t="s">
         <v>11</v>
       </c>
-      <c r="D139" s="3">
+      <c r="C139">
+        <v>2</v>
+      </c>
+      <c r="D139" s="2">
         <v>45145</v>
       </c>
-      <c r="E139" t="s">
+      <c r="E139" s="3" t="s">
         <v>95</v>
       </c>
       <c r="F139">
@@ -5529,10 +5824,13 @@
       <c r="B140" t="s">
         <v>11</v>
       </c>
-      <c r="D140" s="3">
+      <c r="C140">
+        <v>2</v>
+      </c>
+      <c r="D140" s="2">
         <v>45145</v>
       </c>
-      <c r="E140" t="s">
+      <c r="E140" s="3" t="s">
         <v>98</v>
       </c>
       <c r="F140">
@@ -5555,10 +5853,13 @@
       <c r="B141" t="s">
         <v>11</v>
       </c>
-      <c r="D141" s="3">
+      <c r="C141">
+        <v>1</v>
+      </c>
+      <c r="D141" s="2">
         <v>45061</v>
       </c>
-      <c r="E141" t="s">
+      <c r="E141" s="3" t="s">
         <v>202</v>
       </c>
       <c r="F141">
@@ -5581,10 +5882,13 @@
       <c r="B142" t="s">
         <v>11</v>
       </c>
-      <c r="D142" s="3">
+      <c r="C142">
+        <v>1</v>
+      </c>
+      <c r="D142" s="2">
         <v>45061</v>
       </c>
-      <c r="E142" t="s">
+      <c r="E142" s="3" t="s">
         <v>199</v>
       </c>
       <c r="F142">
@@ -5607,10 +5911,13 @@
       <c r="B143" t="s">
         <v>11</v>
       </c>
-      <c r="D143" s="3">
+      <c r="C143">
+        <v>1</v>
+      </c>
+      <c r="D143" s="2">
         <v>45061</v>
       </c>
-      <c r="E143" t="s">
+      <c r="E143" s="3" t="s">
         <v>203</v>
       </c>
       <c r="F143">
@@ -5633,10 +5940,13 @@
       <c r="B144" t="s">
         <v>11</v>
       </c>
-      <c r="D144" s="3">
+      <c r="C144">
+        <v>2</v>
+      </c>
+      <c r="D144" s="2">
         <v>45138</v>
       </c>
-      <c r="E144" t="s">
+      <c r="E144" s="3" t="s">
         <v>198</v>
       </c>
       <c r="F144">
@@ -5659,10 +5969,13 @@
       <c r="B145" t="s">
         <v>11</v>
       </c>
-      <c r="D145" s="3">
+      <c r="C145">
+        <v>2</v>
+      </c>
+      <c r="D145" s="2">
         <v>45138</v>
       </c>
-      <c r="E145" t="s">
+      <c r="E145" s="3" t="s">
         <v>201</v>
       </c>
       <c r="F145">
@@ -5685,10 +5998,13 @@
       <c r="B146" t="s">
         <v>11</v>
       </c>
-      <c r="D146" s="3">
+      <c r="C146">
+        <v>2</v>
+      </c>
+      <c r="D146" s="2">
         <v>45138</v>
       </c>
-      <c r="E146" t="s">
+      <c r="E146" s="3" t="s">
         <v>200</v>
       </c>
       <c r="F146">
@@ -5711,10 +6027,13 @@
       <c r="B147" t="s">
         <v>6</v>
       </c>
-      <c r="D147" s="3">
+      <c r="C147">
+        <v>1</v>
+      </c>
+      <c r="D147" s="2">
         <v>45061</v>
       </c>
-      <c r="E147" t="s">
+      <c r="E147" s="3" t="s">
         <v>265</v>
       </c>
       <c r="F147">
@@ -5737,10 +6056,13 @@
       <c r="B148" t="s">
         <v>6</v>
       </c>
-      <c r="D148" s="3">
+      <c r="C148">
+        <v>1</v>
+      </c>
+      <c r="D148" s="2">
         <v>45068</v>
       </c>
-      <c r="E148" t="s">
+      <c r="E148" s="3" t="s">
         <v>266</v>
       </c>
       <c r="F148">
@@ -5763,10 +6085,13 @@
       <c r="B149" t="s">
         <v>6</v>
       </c>
-      <c r="D149" s="3">
+      <c r="C149">
+        <v>1</v>
+      </c>
+      <c r="D149" s="2">
         <v>45068</v>
       </c>
-      <c r="E149" t="s">
+      <c r="E149" s="3" t="s">
         <v>268</v>
       </c>
       <c r="F149">
@@ -5789,10 +6114,13 @@
       <c r="B150" t="s">
         <v>6</v>
       </c>
-      <c r="D150" s="3">
+      <c r="C150">
+        <v>2</v>
+      </c>
+      <c r="D150" s="2">
         <v>45152</v>
       </c>
-      <c r="E150" t="s">
+      <c r="E150" s="3" t="s">
         <v>264</v>
       </c>
       <c r="F150">
@@ -5815,10 +6143,13 @@
       <c r="B151" t="s">
         <v>6</v>
       </c>
-      <c r="D151" s="3">
+      <c r="C151">
+        <v>2</v>
+      </c>
+      <c r="D151" s="2">
         <v>45152</v>
       </c>
-      <c r="E151" t="s">
+      <c r="E151" s="3" t="s">
         <v>263</v>
       </c>
       <c r="F151">
@@ -5841,10 +6172,13 @@
       <c r="B152" t="s">
         <v>6</v>
       </c>
-      <c r="D152" s="3">
+      <c r="C152">
+        <v>2</v>
+      </c>
+      <c r="D152" s="2">
         <v>45152</v>
       </c>
-      <c r="E152" t="s">
+      <c r="E152" s="3" t="s">
         <v>267</v>
       </c>
       <c r="F152">
@@ -5867,10 +6201,13 @@
       <c r="B153" t="s">
         <v>11</v>
       </c>
-      <c r="D153" s="3">
+      <c r="C153">
+        <v>1</v>
+      </c>
+      <c r="D153" s="2">
         <v>45062</v>
       </c>
-      <c r="E153" t="s">
+      <c r="E153" s="3" t="s">
         <v>278</v>
       </c>
       <c r="F153">
@@ -5893,10 +6230,13 @@
       <c r="B154" t="s">
         <v>11</v>
       </c>
-      <c r="D154" s="3">
+      <c r="C154">
+        <v>1</v>
+      </c>
+      <c r="D154" s="2">
         <v>45062</v>
       </c>
-      <c r="E154" t="s">
+      <c r="E154" s="3" t="s">
         <v>279</v>
       </c>
       <c r="F154">
@@ -5919,10 +6259,13 @@
       <c r="B155" t="s">
         <v>11</v>
       </c>
-      <c r="D155" s="3">
+      <c r="C155">
+        <v>1</v>
+      </c>
+      <c r="D155" s="2">
         <v>45062</v>
       </c>
-      <c r="E155" t="s">
+      <c r="E155" s="3" t="s">
         <v>280</v>
       </c>
       <c r="F155">
@@ -5945,10 +6288,13 @@
       <c r="B156" t="s">
         <v>6</v>
       </c>
-      <c r="D156" s="3">
+      <c r="C156">
+        <v>1</v>
+      </c>
+      <c r="D156" s="2">
         <v>45063</v>
       </c>
-      <c r="E156" t="s">
+      <c r="E156" s="3" t="s">
         <v>287</v>
       </c>
       <c r="F156">
@@ -5971,10 +6317,13 @@
       <c r="B157" t="s">
         <v>6</v>
       </c>
-      <c r="D157" s="3">
+      <c r="C157">
+        <v>1</v>
+      </c>
+      <c r="D157" s="2">
         <v>45063</v>
       </c>
-      <c r="E157" t="s">
+      <c r="E157" s="3" t="s">
         <v>285</v>
       </c>
       <c r="F157">
@@ -5997,10 +6346,13 @@
       <c r="B158" t="s">
         <v>6</v>
       </c>
-      <c r="D158" s="3">
+      <c r="C158">
+        <v>1</v>
+      </c>
+      <c r="D158" s="2">
         <v>45063</v>
       </c>
-      <c r="E158" t="s">
+      <c r="E158" s="3" t="s">
         <v>286</v>
       </c>
       <c r="F158">
@@ -6023,10 +6375,13 @@
       <c r="B159" t="s">
         <v>11</v>
       </c>
-      <c r="D159" s="3">
+      <c r="C159">
+        <v>1</v>
+      </c>
+      <c r="D159" s="2">
         <v>45063</v>
       </c>
-      <c r="E159" t="s">
+      <c r="E159" s="3" t="s">
         <v>135</v>
       </c>
       <c r="F159">
@@ -6049,10 +6404,13 @@
       <c r="B160" t="s">
         <v>11</v>
       </c>
-      <c r="D160" s="3">
+      <c r="C160">
+        <v>1</v>
+      </c>
+      <c r="D160" s="2">
         <v>45063</v>
       </c>
-      <c r="E160" t="s">
+      <c r="E160" s="3" t="s">
         <v>131</v>
       </c>
       <c r="F160">
@@ -6075,10 +6433,13 @@
       <c r="B161" t="s">
         <v>11</v>
       </c>
-      <c r="D161" s="3">
+      <c r="C161">
+        <v>1</v>
+      </c>
+      <c r="D161" s="2">
         <v>45063</v>
       </c>
-      <c r="E161" t="s">
+      <c r="E161" s="3" t="s">
         <v>134</v>
       </c>
       <c r="F161">
@@ -6101,10 +6462,13 @@
       <c r="B162" t="s">
         <v>11</v>
       </c>
-      <c r="D162" s="3">
+      <c r="C162">
+        <v>2</v>
+      </c>
+      <c r="D162" s="2">
         <v>45138</v>
       </c>
-      <c r="E162" t="s">
+      <c r="E162" s="3" t="s">
         <v>132</v>
       </c>
       <c r="F162">
@@ -6127,10 +6491,13 @@
       <c r="B163" t="s">
         <v>11</v>
       </c>
-      <c r="D163" s="3">
+      <c r="C163">
+        <v>2</v>
+      </c>
+      <c r="D163" s="2">
         <v>45138</v>
       </c>
-      <c r="E163" t="s">
+      <c r="E163" s="3" t="s">
         <v>133</v>
       </c>
       <c r="F163">
@@ -6153,10 +6520,13 @@
       <c r="B164" t="s">
         <v>11</v>
       </c>
-      <c r="D164" s="3">
+      <c r="C164">
+        <v>2</v>
+      </c>
+      <c r="D164" s="2">
         <v>45138</v>
       </c>
-      <c r="E164" t="s">
+      <c r="E164" s="3" t="s">
         <v>136</v>
       </c>
       <c r="F164">
@@ -6179,10 +6549,13 @@
       <c r="B165" t="s">
         <v>11</v>
       </c>
-      <c r="D165" s="3">
+      <c r="C165">
+        <v>1</v>
+      </c>
+      <c r="D165" s="2">
         <v>45064</v>
       </c>
-      <c r="E165" t="s">
+      <c r="E165" s="3" t="s">
         <v>195</v>
       </c>
       <c r="F165">
@@ -6205,10 +6578,13 @@
       <c r="B166" t="s">
         <v>11</v>
       </c>
-      <c r="D166" s="3">
+      <c r="C166">
+        <v>1</v>
+      </c>
+      <c r="D166" s="2">
         <v>45064</v>
       </c>
-      <c r="E166" t="s">
+      <c r="E166" s="3" t="s">
         <v>194</v>
       </c>
       <c r="F166">
@@ -6231,10 +6607,13 @@
       <c r="B167" t="s">
         <v>11</v>
       </c>
-      <c r="D167" s="3">
+      <c r="C167">
+        <v>1</v>
+      </c>
+      <c r="D167" s="2">
         <v>45064</v>
       </c>
-      <c r="E167" t="s">
+      <c r="E167" s="3" t="s">
         <v>196</v>
       </c>
       <c r="F167">
@@ -6257,10 +6636,13 @@
       <c r="B168" t="s">
         <v>11</v>
       </c>
-      <c r="D168" s="3">
+      <c r="C168">
+        <v>2</v>
+      </c>
+      <c r="D168" s="2">
         <v>45142</v>
       </c>
-      <c r="E168" t="s">
+      <c r="E168" s="3" t="s">
         <v>192</v>
       </c>
       <c r="F168">
@@ -6283,10 +6665,13 @@
       <c r="B169" t="s">
         <v>11</v>
       </c>
-      <c r="D169" s="3">
+      <c r="C169">
+        <v>2</v>
+      </c>
+      <c r="D169" s="2">
         <v>45142</v>
       </c>
-      <c r="E169" t="s">
+      <c r="E169" s="3" t="s">
         <v>193</v>
       </c>
       <c r="F169">
@@ -6309,10 +6694,13 @@
       <c r="B170" t="s">
         <v>11</v>
       </c>
-      <c r="D170" s="3">
+      <c r="C170">
+        <v>2</v>
+      </c>
+      <c r="D170" s="2">
         <v>45142</v>
       </c>
-      <c r="E170" t="s">
+      <c r="E170" s="3" t="s">
         <v>191</v>
       </c>
       <c r="F170">
@@ -6335,10 +6723,13 @@
       <c r="B171" t="s">
         <v>6</v>
       </c>
-      <c r="D171" s="3">
+      <c r="C171">
+        <v>1</v>
+      </c>
+      <c r="D171" s="2">
         <v>45071</v>
       </c>
-      <c r="E171" t="s">
+      <c r="E171" s="3" t="s">
         <v>168</v>
       </c>
       <c r="F171">
@@ -6361,10 +6752,13 @@
       <c r="B172" t="s">
         <v>6</v>
       </c>
-      <c r="D172" s="3">
+      <c r="C172">
+        <v>1</v>
+      </c>
+      <c r="D172" s="2">
         <v>45071</v>
       </c>
-      <c r="E172" t="s">
+      <c r="E172" s="3" t="s">
         <v>167</v>
       </c>
       <c r="F172">
@@ -6387,10 +6781,13 @@
       <c r="B173" t="s">
         <v>6</v>
       </c>
-      <c r="D173" s="3">
+      <c r="C173">
+        <v>1</v>
+      </c>
+      <c r="D173" s="2">
         <v>45071</v>
       </c>
-      <c r="E173" t="s">
+      <c r="E173" s="3" t="s">
         <v>166</v>
       </c>
       <c r="F173">
@@ -6413,10 +6810,13 @@
       <c r="B174" t="s">
         <v>6</v>
       </c>
-      <c r="D174" s="3">
+      <c r="C174">
+        <v>2</v>
+      </c>
+      <c r="D174" s="2">
         <v>45141</v>
       </c>
-      <c r="E174" t="s">
+      <c r="E174" s="3" t="s">
         <v>163</v>
       </c>
       <c r="F174">
@@ -6439,10 +6839,13 @@
       <c r="B175" t="s">
         <v>6</v>
       </c>
-      <c r="D175" s="3">
+      <c r="C175">
+        <v>2</v>
+      </c>
+      <c r="D175" s="2">
         <v>45141</v>
       </c>
-      <c r="E175" t="s">
+      <c r="E175" s="3" t="s">
         <v>164</v>
       </c>
       <c r="F175">
@@ -6465,10 +6868,13 @@
       <c r="B176" t="s">
         <v>6</v>
       </c>
-      <c r="D176" s="3">
+      <c r="C176">
+        <v>2</v>
+      </c>
+      <c r="D176" s="2">
         <v>45141</v>
       </c>
-      <c r="E176" t="s">
+      <c r="E176" s="3" t="s">
         <v>165</v>
       </c>
       <c r="F176">
@@ -6491,10 +6897,13 @@
       <c r="B177" t="s">
         <v>11</v>
       </c>
-      <c r="D177" s="3">
+      <c r="C177">
+        <v>1</v>
+      </c>
+      <c r="D177" s="2">
         <v>45071</v>
       </c>
-      <c r="E177" t="s">
+      <c r="E177" s="3" t="s">
         <v>49</v>
       </c>
       <c r="F177">
@@ -6517,10 +6926,13 @@
       <c r="B178" t="s">
         <v>11</v>
       </c>
-      <c r="D178" s="3">
+      <c r="C178">
+        <v>1</v>
+      </c>
+      <c r="D178" s="2">
         <v>45071</v>
       </c>
-      <c r="E178" t="s">
+      <c r="E178" s="3" t="s">
         <v>46</v>
       </c>
       <c r="F178">
@@ -6543,10 +6955,13 @@
       <c r="B179" t="s">
         <v>11</v>
       </c>
-      <c r="D179" s="3">
+      <c r="C179">
+        <v>1</v>
+      </c>
+      <c r="D179" s="2">
         <v>45071</v>
       </c>
-      <c r="E179" t="s">
+      <c r="E179" s="3" t="s">
         <v>45</v>
       </c>
       <c r="F179">
@@ -6569,10 +6984,13 @@
       <c r="B180" t="s">
         <v>11</v>
       </c>
-      <c r="D180" s="3">
+      <c r="C180">
+        <v>2</v>
+      </c>
+      <c r="D180" s="2">
         <v>45154</v>
       </c>
-      <c r="E180" t="s">
+      <c r="E180" s="3" t="s">
         <v>48</v>
       </c>
       <c r="F180">
@@ -6595,10 +7013,13 @@
       <c r="B181" t="s">
         <v>11</v>
       </c>
-      <c r="D181" s="3">
+      <c r="C181">
+        <v>2</v>
+      </c>
+      <c r="D181" s="2">
         <v>45154</v>
       </c>
-      <c r="E181" t="s">
+      <c r="E181" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F181">
@@ -6621,10 +7042,13 @@
       <c r="B182" t="s">
         <v>11</v>
       </c>
-      <c r="D182" s="3">
+      <c r="C182">
+        <v>2</v>
+      </c>
+      <c r="D182" s="2">
         <v>45154</v>
       </c>
-      <c r="E182" t="s">
+      <c r="E182" s="3" t="s">
         <v>47</v>
       </c>
       <c r="F182">
@@ -6647,10 +7071,13 @@
       <c r="B183" t="s">
         <v>11</v>
       </c>
-      <c r="D183" s="3">
+      <c r="C183">
+        <v>1</v>
+      </c>
+      <c r="D183" s="2">
         <v>45072</v>
       </c>
-      <c r="E183" t="s">
+      <c r="E183" s="3" t="s">
         <v>111</v>
       </c>
       <c r="F183">
@@ -6673,10 +7100,13 @@
       <c r="B184" t="s">
         <v>11</v>
       </c>
-      <c r="D184" s="3">
+      <c r="C184">
+        <v>1</v>
+      </c>
+      <c r="D184" s="2">
         <v>45072</v>
       </c>
-      <c r="E184" t="s">
+      <c r="E184" s="3" t="s">
         <v>110</v>
       </c>
       <c r="F184">
@@ -6699,10 +7129,13 @@
       <c r="B185" t="s">
         <v>11</v>
       </c>
-      <c r="D185" s="3">
+      <c r="C185">
+        <v>1</v>
+      </c>
+      <c r="D185" s="2">
         <v>45072</v>
       </c>
-      <c r="E185" t="s">
+      <c r="E185" s="3" t="s">
         <v>109</v>
       </c>
       <c r="F185">
@@ -6725,10 +7158,13 @@
       <c r="B186" t="s">
         <v>11</v>
       </c>
-      <c r="D186" s="3">
+      <c r="C186">
+        <v>1</v>
+      </c>
+      <c r="D186" s="2">
         <v>45078</v>
       </c>
-      <c r="E186" t="s">
+      <c r="E186" s="3" t="s">
         <v>103</v>
       </c>
       <c r="F186">
@@ -6751,10 +7187,13 @@
       <c r="B187" t="s">
         <v>11</v>
       </c>
-      <c r="D187" s="3">
+      <c r="C187">
+        <v>1</v>
+      </c>
+      <c r="D187" s="2">
         <v>45078</v>
       </c>
-      <c r="E187" t="s">
+      <c r="E187" s="3" t="s">
         <v>101</v>
       </c>
       <c r="F187">
@@ -6777,10 +7216,13 @@
       <c r="B188" t="s">
         <v>11</v>
       </c>
-      <c r="D188" s="3">
+      <c r="C188">
+        <v>1</v>
+      </c>
+      <c r="D188" s="2">
         <v>45078</v>
       </c>
-      <c r="E188" t="s">
+      <c r="E188" s="3" t="s">
         <v>102</v>
       </c>
       <c r="F188">
@@ -6803,10 +7245,13 @@
       <c r="B189" t="s">
         <v>6</v>
       </c>
-      <c r="D189" s="3">
+      <c r="C189">
+        <v>1</v>
+      </c>
+      <c r="D189" s="2">
         <v>45082</v>
       </c>
-      <c r="E189" t="s">
+      <c r="E189" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F189">
@@ -6829,10 +7274,13 @@
       <c r="B190" t="s">
         <v>6</v>
       </c>
-      <c r="D190" s="3">
+      <c r="C190">
+        <v>1</v>
+      </c>
+      <c r="D190" s="2">
         <v>45082</v>
       </c>
-      <c r="E190" t="s">
+      <c r="E190" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F190">
@@ -6855,10 +7303,13 @@
       <c r="B191" t="s">
         <v>6</v>
       </c>
-      <c r="D191" s="3">
+      <c r="C191">
+        <v>1</v>
+      </c>
+      <c r="D191" s="2">
         <v>45082</v>
       </c>
-      <c r="E191" t="s">
+      <c r="E191" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F191">
@@ -6881,10 +7332,13 @@
       <c r="B192" t="s">
         <v>11</v>
       </c>
-      <c r="D192" s="3">
+      <c r="C192">
+        <v>1</v>
+      </c>
+      <c r="D192" s="2">
         <v>45082</v>
       </c>
-      <c r="E192" t="s">
+      <c r="E192" s="3" t="s">
         <v>81</v>
       </c>
       <c r="F192">
@@ -6907,10 +7361,13 @@
       <c r="B193" t="s">
         <v>11</v>
       </c>
-      <c r="D193" s="3">
+      <c r="C193">
+        <v>1</v>
+      </c>
+      <c r="D193" s="2">
         <v>45082</v>
       </c>
-      <c r="E193" t="s">
+      <c r="E193" s="3" t="s">
         <v>82</v>
       </c>
       <c r="F193">
@@ -6933,10 +7390,13 @@
       <c r="B194" t="s">
         <v>11</v>
       </c>
-      <c r="D194" s="3">
+      <c r="C194">
+        <v>1</v>
+      </c>
+      <c r="D194" s="2">
         <v>45089</v>
       </c>
-      <c r="E194" t="s">
+      <c r="E194" s="3" t="s">
         <v>80</v>
       </c>
       <c r="F194">
@@ -6959,10 +7419,13 @@
       <c r="B195" t="s">
         <v>11</v>
       </c>
-      <c r="D195" s="3">
+      <c r="C195">
+        <v>1</v>
+      </c>
+      <c r="D195" s="2">
         <v>45086</v>
       </c>
-      <c r="E195" t="s">
+      <c r="E195" s="3" t="s">
         <v>160</v>
       </c>
       <c r="F195">
@@ -6985,10 +7448,13 @@
       <c r="B196" t="s">
         <v>11</v>
       </c>
-      <c r="D196" s="3">
+      <c r="C196">
+        <v>1</v>
+      </c>
+      <c r="D196" s="2">
         <v>45093</v>
       </c>
-      <c r="E196" t="s">
+      <c r="E196" s="3" t="s">
         <v>159</v>
       </c>
       <c r="F196">
@@ -7011,10 +7477,13 @@
       <c r="B197" t="s">
         <v>11</v>
       </c>
-      <c r="D197" s="3">
+      <c r="C197">
+        <v>1</v>
+      </c>
+      <c r="D197" s="2">
         <v>45093</v>
       </c>
-      <c r="E197" t="s">
+      <c r="E197" s="3" t="s">
         <v>158</v>
       </c>
       <c r="F197">
@@ -7037,10 +7506,13 @@
       <c r="B198" t="s">
         <v>11</v>
       </c>
-      <c r="D198" s="3">
+      <c r="C198">
+        <v>1</v>
+      </c>
+      <c r="D198" s="2">
         <v>45084</v>
       </c>
-      <c r="E198" t="s">
+      <c r="E198" s="3" t="s">
         <v>64</v>
       </c>
       <c r="F198">
@@ -7063,10 +7535,13 @@
       <c r="B199" t="s">
         <v>11</v>
       </c>
-      <c r="D199" s="3">
+      <c r="C199">
+        <v>1</v>
+      </c>
+      <c r="D199" s="2">
         <v>45084</v>
       </c>
-      <c r="E199" t="s">
+      <c r="E199" s="3" t="s">
         <v>66</v>
       </c>
       <c r="F199">
@@ -7089,10 +7564,13 @@
       <c r="B200" t="s">
         <v>11</v>
       </c>
-      <c r="D200" s="3">
+      <c r="C200">
+        <v>1</v>
+      </c>
+      <c r="D200" s="2">
         <v>45084</v>
       </c>
-      <c r="E200" t="s">
+      <c r="E200" s="3" t="s">
         <v>65</v>
       </c>
       <c r="F200">
@@ -7115,10 +7593,13 @@
       <c r="B201" t="s">
         <v>11</v>
       </c>
-      <c r="D201" s="3">
+      <c r="C201">
+        <v>1</v>
+      </c>
+      <c r="D201" s="2">
         <v>45085</v>
       </c>
-      <c r="E201" t="s">
+      <c r="E201" s="3" t="s">
         <v>106</v>
       </c>
       <c r="F201">
@@ -7141,10 +7622,13 @@
       <c r="B202" t="s">
         <v>11</v>
       </c>
-      <c r="D202" s="3">
+      <c r="C202">
+        <v>1</v>
+      </c>
+      <c r="D202" s="2">
         <v>45085</v>
       </c>
-      <c r="E202" t="s">
+      <c r="E202" s="3" t="s">
         <v>107</v>
       </c>
       <c r="F202">
@@ -7167,10 +7651,13 @@
       <c r="B203" t="s">
         <v>11</v>
       </c>
-      <c r="D203" s="3">
+      <c r="C203">
+        <v>1</v>
+      </c>
+      <c r="D203" s="2">
         <v>45085</v>
       </c>
-      <c r="E203" t="s">
+      <c r="E203" s="3" t="s">
         <v>105</v>
       </c>
       <c r="F203">
@@ -7193,10 +7680,13 @@
       <c r="B204" t="s">
         <v>6</v>
       </c>
-      <c r="D204" s="3">
+      <c r="C204">
+        <v>1</v>
+      </c>
+      <c r="D204" s="2">
         <v>45090</v>
       </c>
-      <c r="E204" t="s">
+      <c r="E204" s="3" t="s">
         <v>221</v>
       </c>
       <c r="F204">
@@ -7219,10 +7709,13 @@
       <c r="B205" t="s">
         <v>6</v>
       </c>
-      <c r="D205" s="3">
+      <c r="C205">
+        <v>1</v>
+      </c>
+      <c r="D205" s="2">
         <v>45090</v>
       </c>
-      <c r="E205" t="s">
+      <c r="E205" s="3" t="s">
         <v>219</v>
       </c>
       <c r="F205">
@@ -7245,10 +7738,13 @@
       <c r="B206" t="s">
         <v>6</v>
       </c>
-      <c r="D206" s="3">
+      <c r="C206">
+        <v>1</v>
+      </c>
+      <c r="D206" s="2">
         <v>45090</v>
       </c>
-      <c r="E206" t="s">
+      <c r="E206" s="3" t="s">
         <v>220</v>
       </c>
       <c r="F206">
@@ -7271,10 +7767,13 @@
       <c r="B207" t="s">
         <v>6</v>
       </c>
-      <c r="D207" s="3">
+      <c r="C207">
+        <v>1</v>
+      </c>
+      <c r="D207" s="2">
         <v>45090</v>
       </c>
-      <c r="E207" t="s">
+      <c r="E207" s="3" t="s">
         <v>283</v>
       </c>
       <c r="F207">
@@ -7297,10 +7796,13 @@
       <c r="B208" t="s">
         <v>6</v>
       </c>
-      <c r="D208" s="3">
+      <c r="C208">
+        <v>1</v>
+      </c>
+      <c r="D208" s="2">
         <v>45093</v>
       </c>
-      <c r="E208" s="2">
+      <c r="E208" s="3">
         <v>0.49321759259259257</v>
       </c>
       <c r="F208">
@@ -7323,10 +7825,13 @@
       <c r="B209" t="s">
         <v>6</v>
       </c>
-      <c r="D209" s="3">
+      <c r="C209">
+        <v>1</v>
+      </c>
+      <c r="D209" s="2">
         <v>45093</v>
       </c>
-      <c r="E209" t="s">
+      <c r="E209" s="3" t="s">
         <v>282</v>
       </c>
       <c r="F209">
@@ -7349,10 +7854,13 @@
       <c r="B210" t="s">
         <v>11</v>
       </c>
-      <c r="D210" s="3">
+      <c r="C210">
+        <v>1</v>
+      </c>
+      <c r="D210" s="2">
         <v>45091</v>
       </c>
-      <c r="E210" t="s">
+      <c r="E210" s="3" t="s">
         <v>155</v>
       </c>
       <c r="F210">
@@ -7375,10 +7883,13 @@
       <c r="B211" t="s">
         <v>11</v>
       </c>
-      <c r="D211" s="3">
+      <c r="C211">
+        <v>1</v>
+      </c>
+      <c r="D211" s="2">
         <v>45091</v>
       </c>
-      <c r="E211" t="s">
+      <c r="E211" s="3" t="s">
         <v>64</v>
       </c>
       <c r="F211">
@@ -7401,10 +7912,13 @@
       <c r="B212" t="s">
         <v>11</v>
       </c>
-      <c r="D212" s="3">
+      <c r="C212">
+        <v>1</v>
+      </c>
+      <c r="D212" s="2">
         <v>45091</v>
       </c>
-      <c r="E212" t="s">
+      <c r="E212" s="3" t="s">
         <v>156</v>
       </c>
       <c r="F212">
@@ -7427,10 +7941,13 @@
       <c r="B213" t="s">
         <v>6</v>
       </c>
-      <c r="D213" s="3">
+      <c r="C213">
+        <v>1</v>
+      </c>
+      <c r="D213" s="2">
         <v>45092</v>
       </c>
-      <c r="E213" t="s">
+      <c r="E213" s="3" t="s">
         <v>272</v>
       </c>
       <c r="F213">
@@ -7453,10 +7970,13 @@
       <c r="B214" t="s">
         <v>6</v>
       </c>
-      <c r="D214" s="3">
+      <c r="C214">
+        <v>1</v>
+      </c>
+      <c r="D214" s="2">
         <v>45097</v>
       </c>
-      <c r="E214" t="s">
+      <c r="E214" s="3" t="s">
         <v>270</v>
       </c>
       <c r="F214">
@@ -7479,10 +7999,13 @@
       <c r="B215" t="s">
         <v>6</v>
       </c>
-      <c r="D215" s="3" t="s">
+      <c r="C215">
+        <v>1</v>
+      </c>
+      <c r="D215" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="E215" t="s">
+      <c r="E215" s="3" t="s">
         <v>271</v>
       </c>
       <c r="F215">
@@ -7505,10 +8028,13 @@
       <c r="B216" t="s">
         <v>6</v>
       </c>
-      <c r="D216" s="3">
+      <c r="C216">
+        <v>1</v>
+      </c>
+      <c r="D216" s="2">
         <v>45096</v>
       </c>
-      <c r="E216" t="s">
+      <c r="E216" s="3" t="s">
         <v>182</v>
       </c>
       <c r="F216">
@@ -7531,10 +8057,13 @@
       <c r="B217" t="s">
         <v>6</v>
       </c>
-      <c r="D217" s="3">
+      <c r="C217">
+        <v>1</v>
+      </c>
+      <c r="D217" s="2">
         <v>45096</v>
       </c>
-      <c r="E217" t="s">
+      <c r="E217" s="3" t="s">
         <v>181</v>
       </c>
       <c r="F217">
@@ -7557,10 +8086,13 @@
       <c r="B218" t="s">
         <v>11</v>
       </c>
-      <c r="D218" s="3">
+      <c r="C218">
+        <v>1</v>
+      </c>
+      <c r="D218" s="2">
         <v>45096</v>
       </c>
-      <c r="E218" t="s">
+      <c r="E218" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F218">
@@ -7583,10 +8115,13 @@
       <c r="B219" t="s">
         <v>11</v>
       </c>
-      <c r="D219" s="3">
+      <c r="C219">
+        <v>1</v>
+      </c>
+      <c r="D219" s="2">
         <v>45096</v>
       </c>
-      <c r="E219" t="s">
+      <c r="E219" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F219">
@@ -7609,10 +8144,13 @@
       <c r="B220" t="s">
         <v>11</v>
       </c>
-      <c r="D220" s="3">
+      <c r="C220">
+        <v>1</v>
+      </c>
+      <c r="D220" s="2">
         <v>45096</v>
       </c>
-      <c r="E220" t="s">
+      <c r="E220" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F220">
@@ -7635,10 +8173,13 @@
       <c r="B221" t="s">
         <v>6</v>
       </c>
-      <c r="D221" s="3">
+      <c r="C221">
+        <v>1</v>
+      </c>
+      <c r="D221" s="2">
         <v>45099</v>
       </c>
-      <c r="E221" t="s">
+      <c r="E221" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F221">
@@ -7661,10 +8202,13 @@
       <c r="B222" t="s">
         <v>6</v>
       </c>
-      <c r="D222" s="3">
+      <c r="C222">
+        <v>1</v>
+      </c>
+      <c r="D222" s="2">
         <v>45099</v>
       </c>
-      <c r="E222" t="s">
+      <c r="E222" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F222">
@@ -7687,10 +8231,13 @@
       <c r="B223" t="s">
         <v>6</v>
       </c>
-      <c r="D223" s="3">
+      <c r="C223">
+        <v>1</v>
+      </c>
+      <c r="D223" s="2">
         <v>45099</v>
       </c>
-      <c r="E223" t="s">
+      <c r="E223" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F223">
@@ -7713,10 +8260,13 @@
       <c r="B224" t="s">
         <v>11</v>
       </c>
-      <c r="D224" s="3">
+      <c r="C224">
+        <v>1</v>
+      </c>
+      <c r="D224" s="2">
         <v>45126</v>
       </c>
-      <c r="E224" s="2">
+      <c r="E224" s="3">
         <v>0.42298611111111112</v>
       </c>
       <c r="F224">
@@ -7739,10 +8289,13 @@
       <c r="B225" t="s">
         <v>11</v>
       </c>
-      <c r="D225" s="3">
+      <c r="C225">
+        <v>1</v>
+      </c>
+      <c r="D225" s="2">
         <v>45126</v>
       </c>
-      <c r="E225" s="2">
+      <c r="E225" s="3">
         <v>0.44737268518518519</v>
       </c>
       <c r="F225">
@@ -7765,10 +8318,13 @@
       <c r="B226" t="s">
         <v>11</v>
       </c>
-      <c r="D226" s="3">
+      <c r="C226">
+        <v>1</v>
+      </c>
+      <c r="D226" s="2">
         <v>45126</v>
       </c>
-      <c r="E226" s="2">
+      <c r="E226" s="3">
         <v>0.46342592592592591</v>
       </c>
       <c r="F226">
@@ -7791,10 +8347,13 @@
       <c r="B227" t="s">
         <v>11</v>
       </c>
-      <c r="D227" s="3">
+      <c r="C227">
+        <v>1</v>
+      </c>
+      <c r="D227" s="2">
         <v>45128</v>
       </c>
-      <c r="E227" t="s">
+      <c r="E227" s="3" t="s">
         <v>128</v>
       </c>
       <c r="F227">
@@ -7817,10 +8376,13 @@
       <c r="B228" t="s">
         <v>11</v>
       </c>
-      <c r="D228" s="3">
+      <c r="C228">
+        <v>1</v>
+      </c>
+      <c r="D228" s="2">
         <v>45128</v>
       </c>
-      <c r="E228" t="s">
+      <c r="E228" s="3" t="s">
         <v>129</v>
       </c>
       <c r="F228">
@@ -7843,10 +8405,13 @@
       <c r="B229" t="s">
         <v>11</v>
       </c>
-      <c r="D229" s="3">
+      <c r="C229">
+        <v>1</v>
+      </c>
+      <c r="D229" s="2">
         <v>45128</v>
       </c>
-      <c r="E229" t="s">
+      <c r="E229" s="3" t="s">
         <v>127</v>
       </c>
       <c r="F229">
@@ -7869,10 +8434,13 @@
       <c r="B230" t="s">
         <v>11</v>
       </c>
-      <c r="D230" s="3">
+      <c r="C230">
+        <v>1</v>
+      </c>
+      <c r="D230" s="2">
         <v>45134</v>
       </c>
-      <c r="E230" s="2">
+      <c r="E230" s="3">
         <v>0.40313657407407405</v>
       </c>
       <c r="F230">
@@ -7895,10 +8463,13 @@
       <c r="B231" t="s">
         <v>11</v>
       </c>
-      <c r="D231" s="3">
+      <c r="C231">
+        <v>1</v>
+      </c>
+      <c r="D231" s="2">
         <v>45134</v>
       </c>
-      <c r="E231" s="2">
+      <c r="E231" s="3">
         <v>0.42214120370370373</v>
       </c>
       <c r="F231">
@@ -7921,10 +8492,13 @@
       <c r="B232" t="s">
         <v>11</v>
       </c>
-      <c r="D232" s="3">
+      <c r="C232">
+        <v>1</v>
+      </c>
+      <c r="D232" s="2">
         <v>45134</v>
       </c>
-      <c r="E232" s="2">
+      <c r="E232" s="3">
         <v>0.44504629629629627</v>
       </c>
       <c r="F232">
@@ -7947,10 +8521,13 @@
       <c r="B233" t="s">
         <v>11</v>
       </c>
-      <c r="D233" s="3">
+      <c r="C233">
+        <v>1</v>
+      </c>
+      <c r="D233" s="2">
         <v>45139</v>
       </c>
-      <c r="E233" t="s">
+      <c r="E233" s="3" t="s">
         <v>91</v>
       </c>
       <c r="F233">
@@ -7973,10 +8550,13 @@
       <c r="B234" t="s">
         <v>11</v>
       </c>
-      <c r="D234" s="3">
+      <c r="C234">
+        <v>1</v>
+      </c>
+      <c r="D234" s="2">
         <v>45139</v>
       </c>
-      <c r="E234" t="s">
+      <c r="E234" s="3" t="s">
         <v>92</v>
       </c>
       <c r="F234">
@@ -7999,10 +8579,13 @@
       <c r="B235" t="s">
         <v>11</v>
       </c>
-      <c r="D235" s="3">
+      <c r="C235">
+        <v>1</v>
+      </c>
+      <c r="D235" s="2">
         <v>45139</v>
       </c>
-      <c r="E235" t="s">
+      <c r="E235" s="3" t="s">
         <v>93</v>
       </c>
       <c r="F235">
@@ -8025,10 +8608,13 @@
       <c r="B236" t="s">
         <v>11</v>
       </c>
-      <c r="D236" s="3">
+      <c r="C236">
+        <v>1</v>
+      </c>
+      <c r="D236" s="2">
         <v>45141</v>
       </c>
-      <c r="E236" t="s">
+      <c r="E236" s="3" t="s">
         <v>33</v>
       </c>
       <c r="F236">
@@ -8051,10 +8637,13 @@
       <c r="B237" t="s">
         <v>11</v>
       </c>
-      <c r="D237" s="3">
+      <c r="C237">
+        <v>1</v>
+      </c>
+      <c r="D237" s="2">
         <v>45141</v>
       </c>
-      <c r="E237" t="s">
+      <c r="E237" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F237">
@@ -8077,10 +8666,13 @@
       <c r="B238" t="s">
         <v>11</v>
       </c>
-      <c r="D238" s="3">
+      <c r="C238">
+        <v>1</v>
+      </c>
+      <c r="D238" s="2">
         <v>45141</v>
       </c>
-      <c r="E238" t="s">
+      <c r="E238" s="3" t="s">
         <v>35</v>
       </c>
       <c r="F238">
@@ -8103,10 +8695,13 @@
       <c r="B239" t="s">
         <v>6</v>
       </c>
-      <c r="D239" s="3">
+      <c r="C239">
+        <v>1</v>
+      </c>
+      <c r="D239" s="2">
         <v>45145</v>
       </c>
-      <c r="E239" t="s">
+      <c r="E239" s="3" t="s">
         <v>60</v>
       </c>
       <c r="F239">
@@ -8129,10 +8724,13 @@
       <c r="B240" t="s">
         <v>6</v>
       </c>
-      <c r="D240" s="3">
+      <c r="C240">
+        <v>1</v>
+      </c>
+      <c r="D240" s="2">
         <v>45145</v>
       </c>
-      <c r="E240" t="s">
+      <c r="E240" s="3" t="s">
         <v>62</v>
       </c>
       <c r="F240">
@@ -8155,10 +8753,13 @@
       <c r="B241" t="s">
         <v>6</v>
       </c>
-      <c r="D241" s="3">
+      <c r="C241">
+        <v>1</v>
+      </c>
+      <c r="D241" s="2">
         <v>45145</v>
       </c>
-      <c r="E241" t="s">
+      <c r="E241" s="3" t="s">
         <v>61</v>
       </c>
       <c r="F241">
@@ -8181,10 +8782,13 @@
       <c r="B242" t="s">
         <v>6</v>
       </c>
-      <c r="D242" s="3">
+      <c r="C242">
+        <v>1</v>
+      </c>
+      <c r="D242" s="2">
         <v>45261</v>
       </c>
-      <c r="E242" t="s">
+      <c r="E242" s="3" t="s">
         <v>223</v>
       </c>
       <c r="F242">
@@ -8207,10 +8811,13 @@
       <c r="B243" t="s">
         <v>6</v>
       </c>
-      <c r="D243" s="3">
+      <c r="C243">
+        <v>1</v>
+      </c>
+      <c r="D243" s="2">
         <v>45261</v>
       </c>
-      <c r="E243" t="s">
+      <c r="E243" s="3" t="s">
         <v>224</v>
       </c>
       <c r="F243">
@@ -8233,10 +8840,13 @@
       <c r="B244" t="s">
         <v>11</v>
       </c>
-      <c r="D244" s="3">
+      <c r="C244">
+        <v>1</v>
+      </c>
+      <c r="D244" s="2">
         <v>45134</v>
       </c>
-      <c r="E244" t="s">
+      <c r="E244" s="3" t="s">
         <v>125</v>
       </c>
       <c r="F244">
@@ -8259,10 +8869,13 @@
       <c r="B245" t="s">
         <v>11</v>
       </c>
-      <c r="D245" s="3">
+      <c r="C245">
+        <v>1</v>
+      </c>
+      <c r="D245" s="2">
         <v>45134</v>
       </c>
-      <c r="E245" t="s">
+      <c r="E245" s="3" t="s">
         <v>123</v>
       </c>
       <c r="F245">
@@ -8285,10 +8898,13 @@
       <c r="B246" t="s">
         <v>11</v>
       </c>
-      <c r="D246" s="3">
+      <c r="C246">
+        <v>1</v>
+      </c>
+      <c r="D246" s="2">
         <v>45134</v>
       </c>
-      <c r="E246" t="s">
+      <c r="E246" s="3" t="s">
         <v>124</v>
       </c>
       <c r="F246">
@@ -8311,10 +8927,13 @@
       <c r="B247" t="s">
         <v>11</v>
       </c>
-      <c r="D247" s="3">
+      <c r="C247">
+        <v>1</v>
+      </c>
+      <c r="D247" s="2">
         <v>45120</v>
       </c>
-      <c r="E247" t="s">
+      <c r="E247" s="3" t="s">
         <v>144</v>
       </c>
       <c r="F247">
@@ -8337,10 +8956,13 @@
       <c r="B248" t="s">
         <v>11</v>
       </c>
-      <c r="D248" s="3">
+      <c r="C248">
+        <v>1</v>
+      </c>
+      <c r="D248" s="2">
         <v>45134</v>
       </c>
-      <c r="E248" t="s">
+      <c r="E248" s="3" t="s">
         <v>146</v>
       </c>
       <c r="F248">
@@ -8363,10 +8985,13 @@
       <c r="B249" t="s">
         <v>11</v>
       </c>
-      <c r="D249" s="3">
+      <c r="C249">
+        <v>1</v>
+      </c>
+      <c r="D249" s="2">
         <v>45134</v>
       </c>
-      <c r="E249" t="s">
+      <c r="E249" s="3" t="s">
         <v>145</v>
       </c>
       <c r="F249">
@@ -8389,10 +9014,13 @@
       <c r="B250" t="s">
         <v>11</v>
       </c>
-      <c r="D250" s="3">
+      <c r="C250">
+        <v>1</v>
+      </c>
+      <c r="D250" s="2">
         <v>45141</v>
       </c>
-      <c r="E250" t="s">
+      <c r="E250" s="3" t="s">
         <v>114</v>
       </c>
       <c r="F250">
@@ -8415,10 +9043,13 @@
       <c r="B251" t="s">
         <v>11</v>
       </c>
-      <c r="D251" s="3">
+      <c r="C251">
+        <v>1</v>
+      </c>
+      <c r="D251" s="2">
         <v>45141</v>
       </c>
-      <c r="E251" t="s">
+      <c r="E251" s="3" t="s">
         <v>115</v>
       </c>
       <c r="F251">
@@ -8441,10 +9072,13 @@
       <c r="B252" t="s">
         <v>11</v>
       </c>
-      <c r="D252" s="3">
+      <c r="C252">
+        <v>1</v>
+      </c>
+      <c r="D252" s="2">
         <v>45141</v>
       </c>
-      <c r="E252" t="s">
+      <c r="E252" s="3" t="s">
         <v>113</v>
       </c>
       <c r="F252">
